--- a/BackTest/2019-10-31 BackTest DVP.xlsx
+++ b/BackTest/2019-10-31 BackTest DVP.xlsx
@@ -1015,7 +1015,9 @@
       <c r="J12" t="n">
         <v>1.1</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>24.99999999999989</v>
+      </c>
       <c r="L12" t="n">
         <v>14.11</v>
       </c>
@@ -1072,7 +1074,9 @@
       <c r="J13" t="n">
         <v>1.1</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="n">
         <v>14.13</v>
       </c>
@@ -1129,7 +1133,9 @@
       <c r="J14" t="n">
         <v>1.199999999999999</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-33.33333333333314</v>
+      </c>
       <c r="L14" t="n">
         <v>14.12</v>
       </c>
@@ -1184,7 +1190,9 @@
       <c r="J15" t="n">
         <v>1.299999999999999</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-33.33333333333314</v>
+      </c>
       <c r="L15" t="n">
         <v>14.11</v>
       </c>
@@ -1237,7 +1245,9 @@
       <c r="J16" t="n">
         <v>1.299999999999999</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-33.33333333333314</v>
+      </c>
       <c r="L16" t="n">
         <v>14.09</v>
       </c>
@@ -1294,7 +1304,9 @@
       <c r="J17" t="n">
         <v>1.399999999999999</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-42.85714285714264</v>
+      </c>
       <c r="L17" t="n">
         <v>14.06000000000001</v>
       </c>
@@ -1351,7 +1363,9 @@
       <c r="J18" t="n">
         <v>1.499999999999998</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-42.857142857143</v>
+      </c>
       <c r="L18" t="n">
         <v>14.04000000000001</v>
       </c>
@@ -1406,7 +1420,9 @@
       <c r="J19" t="n">
         <v>1.499999999999998</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L19" t="n">
         <v>14.01000000000001</v>
       </c>
@@ -1463,7 +1479,9 @@
       <c r="J20" t="n">
         <v>1.599999999999998</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>14.00000000000001</v>
       </c>
@@ -1518,7 +1536,9 @@
       <c r="J21" t="n">
         <v>1.699999999999998</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>13.99000000000001</v>
       </c>
@@ -1575,7 +1595,9 @@
       <c r="J22" t="n">
         <v>1.799999999999997</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L22" t="n">
         <v>14.00000000000001</v>
       </c>
@@ -1629,7 +1651,7 @@
         <v>1.799999999999997</v>
       </c>
       <c r="K23" t="n">
-        <v>19.99999999999995</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L23" t="n">
         <v>14.01000000000001</v>
@@ -1684,7 +1706,7 @@
         <v>1.899999999999997</v>
       </c>
       <c r="K24" t="n">
-        <v>14.28571428571425</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L24" t="n">
         <v>14.04</v>
@@ -1739,7 +1761,7 @@
         <v>1.899999999999997</v>
       </c>
       <c r="K25" t="n">
-        <v>7.692307692307672</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L25" t="n">
         <v>14.06</v>
@@ -1788,7 +1810,7 @@
         <v>1.999999999999998</v>
       </c>
       <c r="K26" t="n">
-        <v>7.692307692307796</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L26" t="n">
         <v>14.09</v>
@@ -1837,7 +1859,7 @@
         <v>2.199999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>-6.666666666666635</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L27" t="n">
         <v>14.11</v>
@@ -1886,7 +1908,7 @@
         <v>2.199999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>-6.666666666666635</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L28" t="n">
         <v>14.12</v>
@@ -1935,7 +1957,7 @@
         <v>2.299999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>-6.666666666666761</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L29" t="n">
         <v>14.14</v>
@@ -1984,7 +2006,7 @@
         <v>2.299999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L30" t="n">
         <v>14.15</v>
@@ -2033,7 +2055,7 @@
         <v>2.499999999999998</v>
       </c>
       <c r="K31" t="n">
-        <v>-6.666666666666651</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L31" t="n">
         <v>14.15</v>
@@ -2084,7 +2106,7 @@
         <v>2.499999999999998</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L32" t="n">
         <v>14.14</v>
@@ -2135,7 +2157,7 @@
         <v>2.499999999999998</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L33" t="n">
         <v>14.13</v>
@@ -2186,7 +2208,7 @@
         <v>2.499999999999998</v>
       </c>
       <c r="K34" t="n">
-        <v>7.692307692307672</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L34" t="n">
         <v>14.11</v>
@@ -2237,7 +2259,7 @@
         <v>2.799999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>20.00000000000005</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>14.12</v>
@@ -2288,7 +2310,7 @@
         <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>5.882352941176446</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>14.1</v>
@@ -2339,7 +2361,7 @@
         <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>12.49999999999994</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>14.1</v>
@@ -2390,7 +2412,7 @@
         <v>3.199999999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>-5.882352941176446</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L38" t="n">
         <v>14.08</v>
@@ -2441,7 +2463,7 @@
         <v>3.199999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>-5.882352941176446</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L39" t="n">
         <v>14.05000000000001</v>
@@ -2492,7 +2514,7 @@
         <v>3.4</v>
       </c>
       <c r="K40" t="n">
-        <v>-22.22222222222221</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L40" t="n">
         <v>14.00000000000001</v>
@@ -2543,7 +2565,7 @@
         <v>3.500000000000002</v>
       </c>
       <c r="K41" t="n">
-        <v>-11.11111111111104</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L41" t="n">
         <v>13.98000000000001</v>
@@ -2594,7 +2616,7 @@
         <v>3.700000000000003</v>
       </c>
       <c r="K42" t="n">
-        <v>-26.31578947368413</v>
+        <v>-33.33333333333324</v>
       </c>
       <c r="L42" t="n">
         <v>13.94000000000001</v>
@@ -2645,7 +2667,7 @@
         <v>4.000000000000004</v>
       </c>
       <c r="K43" t="n">
-        <v>-9.090909090909033</v>
+        <v>-6.666666666666619</v>
       </c>
       <c r="L43" t="n">
         <v>13.93000000000001</v>
@@ -2696,7 +2718,7 @@
         <v>4.200000000000005</v>
       </c>
       <c r="K44" t="n">
-        <v>-21.73913043478253</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L44" t="n">
         <v>13.90000000000001</v>
@@ -2747,7 +2769,7 @@
         <v>4.200000000000005</v>
       </c>
       <c r="K45" t="n">
-        <v>-21.73913043478253</v>
+        <v>-33.33333333333324</v>
       </c>
       <c r="L45" t="n">
         <v>13.84</v>
@@ -2798,7 +2820,7 @@
         <v>4.200000000000005</v>
       </c>
       <c r="K46" t="n">
-        <v>-27.27272727272726</v>
+        <v>-33.33333333333324</v>
       </c>
       <c r="L46" t="n">
         <v>13.8</v>
@@ -2849,7 +2871,7 @@
         <v>4.400000000000006</v>
       </c>
       <c r="K47" t="n">
-        <v>-9.090909090909033</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>13.78</v>
@@ -2900,7 +2922,7 @@
         <v>4.400000000000006</v>
       </c>
       <c r="K48" t="n">
-        <v>-9.090909090909033</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>13.78</v>
@@ -2951,7 +2973,7 @@
         <v>4.500000000000005</v>
       </c>
       <c r="K49" t="n">
-        <v>-18.18181818181807</v>
+        <v>9.090909090909179</v>
       </c>
       <c r="L49" t="n">
         <v>13.77</v>
@@ -3002,7 +3024,7 @@
         <v>4.600000000000005</v>
       </c>
       <c r="K50" t="n">
-        <v>-13.04347826086948</v>
+        <v>9.090909090909033</v>
       </c>
       <c r="L50" t="n">
         <v>13.79000000000001</v>
@@ -3053,7 +3075,7 @@
         <v>4.800000000000006</v>
       </c>
       <c r="K51" t="n">
-        <v>-13.04347826086955</v>
+        <v>9.090909090909033</v>
       </c>
       <c r="L51" t="n">
         <v>13.78</v>
@@ -3104,7 +3126,7 @@
         <v>4.800000000000006</v>
       </c>
       <c r="K52" t="n">
-        <v>-13.04347826086955</v>
+        <v>-25.00000000000006</v>
       </c>
       <c r="L52" t="n">
         <v>13.79</v>
@@ -3155,7 +3177,7 @@
         <v>4.900000000000007</v>
       </c>
       <c r="K53" t="n">
-        <v>-8.333333333333272</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L53" t="n">
         <v>13.78</v>
@@ -3206,7 +3228,7 @@
         <v>4.900000000000007</v>
       </c>
       <c r="K54" t="n">
-        <v>-8.333333333333272</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L54" t="n">
         <v>13.79000000000001</v>
@@ -3257,7 +3279,7 @@
         <v>5.000000000000009</v>
       </c>
       <c r="K55" t="n">
-        <v>-27.27272727272722</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>13.79000000000001</v>
@@ -3308,7 +3330,7 @@
         <v>5.000000000000009</v>
       </c>
       <c r="K56" t="n">
-        <v>-19.99999999999993</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L56" t="n">
         <v>13.79000000000001</v>
@@ -3359,7 +3381,7 @@
         <v>5.000000000000009</v>
       </c>
       <c r="K57" t="n">
-        <v>-19.99999999999993</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L57" t="n">
         <v>13.77</v>
@@ -3410,7 +3432,7 @@
         <v>5.100000000000009</v>
       </c>
       <c r="K58" t="n">
-        <v>-15.78947368421049</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>13.74</v>
@@ -3461,7 +3483,7 @@
         <v>5.200000000000008</v>
       </c>
       <c r="K59" t="n">
-        <v>-10.00000000000001</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L59" t="n">
         <v>13.73</v>
@@ -3512,7 +3534,7 @@
         <v>5.300000000000008</v>
       </c>
       <c r="K60" t="n">
-        <v>-5.263157894736803</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L60" t="n">
         <v>13.7</v>
@@ -3563,7 +3585,7 @@
         <v>5.400000000000007</v>
       </c>
       <c r="K61" t="n">
-        <v>-5.263157894736901</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>13.7</v>
@@ -3614,7 +3636,7 @@
         <v>5.400000000000007</v>
       </c>
       <c r="K62" t="n">
-        <v>5.882352941176434</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L62" t="n">
         <v>13.7</v>
@@ -3665,7 +3687,7 @@
         <v>5.500000000000009</v>
       </c>
       <c r="K63" t="n">
-        <v>-6.666666666666619</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>13.7</v>
@@ -3818,7 +3840,7 @@
         <v>5.700000000000012</v>
       </c>
       <c r="K66" t="n">
-        <v>6.66666666666673</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L66" t="n">
         <v>13.7</v>
@@ -3869,7 +3891,7 @@
         <v>5.800000000000011</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L67" t="n">
         <v>13.72</v>
@@ -3920,7 +3942,7 @@
         <v>5.900000000000011</v>
       </c>
       <c r="K68" t="n">
-        <v>-6.666666666666619</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L68" t="n">
         <v>13.74</v>
@@ -3971,7 +3993,7 @@
         <v>5.900000000000011</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L69" t="n">
         <v>13.75000000000001</v>
@@ -4022,7 +4044,7 @@
         <v>5.900000000000011</v>
       </c>
       <c r="K70" t="n">
-        <v>-7.692307692307629</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L70" t="n">
         <v>13.77000000000001</v>
@@ -4073,7 +4095,7 @@
         <v>6.000000000000011</v>
       </c>
       <c r="K71" t="n">
-        <v>16.66666666666669</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L71" t="n">
         <v>13.79000000000001</v>
@@ -4124,7 +4146,7 @@
         <v>6.000000000000011</v>
       </c>
       <c r="K72" t="n">
-        <v>16.66666666666669</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L72" t="n">
         <v>13.81000000000001</v>
@@ -4175,7 +4197,7 @@
         <v>6.000000000000011</v>
       </c>
       <c r="K73" t="n">
-        <v>9.090909090909033</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L73" t="n">
         <v>13.82000000000001</v>
@@ -4226,7 +4248,7 @@
         <v>6.000000000000011</v>
       </c>
       <c r="K74" t="n">
-        <v>9.090909090909033</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L74" t="n">
         <v>13.84000000000001</v>
@@ -4277,7 +4299,7 @@
         <v>6.10000000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>27.27272727272731</v>
+        <v>50</v>
       </c>
       <c r="L75" t="n">
         <v>13.87000000000001</v>
@@ -4328,7 +4350,7 @@
         <v>6.20000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L76" t="n">
         <v>13.90000000000001</v>
@@ -4379,7 +4401,7 @@
         <v>6.20000000000001</v>
       </c>
       <c r="K77" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L77" t="n">
         <v>13.92000000000001</v>
@@ -4430,7 +4452,7 @@
         <v>6.30000000000001</v>
       </c>
       <c r="K78" t="n">
-        <v>49.99999999999993</v>
+        <v>100</v>
       </c>
       <c r="L78" t="n">
         <v>13.96000000000001</v>
@@ -4481,7 +4503,7 @@
         <v>6.30000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>45.4545454545454</v>
+        <v>100</v>
       </c>
       <c r="L79" t="n">
         <v>14.00000000000001</v>
@@ -4532,7 +4554,7 @@
         <v>6.30000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>59.99999999999985</v>
+        <v>100</v>
       </c>
       <c r="L80" t="n">
         <v>14.04</v>
@@ -4583,7 +4605,7 @@
         <v>6.30000000000001</v>
       </c>
       <c r="K81" t="n">
-        <v>55.55555555555542</v>
+        <v>100</v>
       </c>
       <c r="L81" t="n">
         <v>14.07</v>
@@ -4634,7 +4656,7 @@
         <v>6.400000000000009</v>
       </c>
       <c r="K82" t="n">
-        <v>39.99999999999996</v>
+        <v>50</v>
       </c>
       <c r="L82" t="n">
         <v>14.09</v>
@@ -4685,7 +4707,7 @@
         <v>6.500000000000009</v>
       </c>
       <c r="K83" t="n">
-        <v>19.99999999999993</v>
+        <v>20</v>
       </c>
       <c r="L83" t="n">
         <v>14.1</v>
@@ -4736,7 +4758,7 @@
         <v>6.600000000000009</v>
       </c>
       <c r="K84" t="n">
-        <v>40.00000000000011</v>
+        <v>20</v>
       </c>
       <c r="L84" t="n">
         <v>14.12</v>
@@ -4787,7 +4809,7 @@
         <v>6.600000000000009</v>
       </c>
       <c r="K85" t="n">
-        <v>40.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>14.13</v>
@@ -4838,7 +4860,7 @@
         <v>6.600000000000009</v>
       </c>
       <c r="K86" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>14.13</v>
@@ -4889,7 +4911,7 @@
         <v>6.700000000000008</v>
       </c>
       <c r="K87" t="n">
-        <v>11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L87" t="n">
         <v>14.12</v>
@@ -4940,7 +4962,7 @@
         <v>6.700000000000008</v>
       </c>
       <c r="K88" t="n">
-        <v>25</v>
+        <v>-50</v>
       </c>
       <c r="L88" t="n">
         <v>14.1</v>
@@ -4991,7 +5013,7 @@
         <v>6.800000000000008</v>
       </c>
       <c r="K89" t="n">
-        <v>11.11111111111111</v>
+        <v>-60</v>
       </c>
       <c r="L89" t="n">
         <v>14.07</v>
@@ -5042,7 +5064,7 @@
         <v>6.800000000000008</v>
       </c>
       <c r="K90" t="n">
-        <v>11.11111111111111</v>
+        <v>-60</v>
       </c>
       <c r="L90" t="n">
         <v>14.04</v>
@@ -5093,7 +5115,7 @@
         <v>6.800000000000008</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L91" t="n">
         <v>14.01000000000001</v>
@@ -5144,7 +5166,7 @@
         <v>6.800000000000008</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L92" t="n">
         <v>13.99000000000001</v>
@@ -5195,7 +5217,7 @@
         <v>6.900000000000007</v>
       </c>
       <c r="K93" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L93" t="n">
         <v>13.99000000000001</v>
@@ -5246,7 +5268,7 @@
         <v>7.000000000000007</v>
       </c>
       <c r="K94" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>13.99000000000001</v>
@@ -5297,7 +5319,7 @@
         <v>7.100000000000007</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L95" t="n">
         <v>13.98000000000001</v>
@@ -5348,7 +5370,7 @@
         <v>7.200000000000006</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L96" t="n">
         <v>13.98000000000001</v>
@@ -5399,7 +5421,7 @@
         <v>7.300000000000006</v>
       </c>
       <c r="K97" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>13.98000000000001</v>
@@ -5450,7 +5472,7 @@
         <v>7.300000000000006</v>
       </c>
       <c r="K98" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="L98" t="n">
         <v>13.98000000000001</v>
@@ -5501,7 +5523,7 @@
         <v>7.300000000000006</v>
       </c>
       <c r="K99" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="L99" t="n">
         <v>13.99000000000001</v>
@@ -5552,7 +5574,7 @@
         <v>7.300000000000006</v>
       </c>
       <c r="K100" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="L100" t="n">
         <v>14.00000000000001</v>
@@ -5603,7 +5625,7 @@
         <v>7.500000000000005</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L101" t="n">
         <v>14.03</v>
@@ -5654,7 +5676,7 @@
         <v>7.500000000000005</v>
       </c>
       <c r="K102" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L102" t="n">
         <v>14.06</v>
@@ -5756,7 +5778,7 @@
         <v>7.500000000000005</v>
       </c>
       <c r="K104" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L104" t="n">
         <v>14.09</v>
@@ -5807,7 +5829,7 @@
         <v>7.600000000000007</v>
       </c>
       <c r="K105" t="n">
-        <v>20.00000000000014</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L105" t="n">
         <v>14.12</v>
@@ -5858,7 +5880,7 @@
         <v>7.600000000000007</v>
       </c>
       <c r="K106" t="n">
-        <v>20.00000000000014</v>
+        <v>100</v>
       </c>
       <c r="L106" t="n">
         <v>14.14</v>
@@ -5909,7 +5931,7 @@
         <v>7.600000000000007</v>
       </c>
       <c r="K107" t="n">
-        <v>33.33333333333346</v>
+        <v>100</v>
       </c>
       <c r="L107" t="n">
         <v>14.17000000000001</v>
@@ -5960,7 +5982,7 @@
         <v>7.700000000000008</v>
       </c>
       <c r="K108" t="n">
-        <v>19.99999999999993</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L108" t="n">
         <v>14.19</v>
@@ -6011,7 +6033,7 @@
         <v>7.700000000000008</v>
       </c>
       <c r="K109" t="n">
-        <v>33.3333333333332</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L109" t="n">
         <v>14.21</v>
@@ -6062,7 +6084,7 @@
         <v>7.80000000000001</v>
       </c>
       <c r="K110" t="n">
-        <v>39.99999999999996</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L110" t="n">
         <v>14.24</v>
@@ -6113,7 +6135,7 @@
         <v>7.900000000000011</v>
       </c>
       <c r="K111" t="n">
-        <v>27.2727272727271</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>14.24</v>
@@ -6164,7 +6186,7 @@
         <v>7.900000000000011</v>
       </c>
       <c r="K112" t="n">
-        <v>27.2727272727271</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>14.24</v>
@@ -6215,7 +6237,7 @@
         <v>8.000000000000012</v>
       </c>
       <c r="K113" t="n">
-        <v>27.27272727272722</v>
+        <v>20</v>
       </c>
       <c r="L113" t="n">
         <v>14.25000000000001</v>
@@ -6266,7 +6288,7 @@
         <v>8.200000000000014</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L114" t="n">
         <v>14.24000000000001</v>
@@ -6317,7 +6339,7 @@
         <v>8.400000000000015</v>
       </c>
       <c r="K115" t="n">
-        <v>23.07692307692299</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>14.24000000000001</v>
@@ -6368,7 +6390,7 @@
         <v>8.500000000000016</v>
       </c>
       <c r="K116" t="n">
-        <v>7.692307692307608</v>
+        <v>-11.11111111111116</v>
       </c>
       <c r="L116" t="n">
         <v>14.23</v>
@@ -6419,7 +6441,7 @@
         <v>8.600000000000016</v>
       </c>
       <c r="K117" t="n">
-        <v>7.692307692307608</v>
+        <v>-11.11111111111098</v>
       </c>
       <c r="L117" t="n">
         <v>14.21</v>
@@ -6470,7 +6492,7 @@
         <v>8.600000000000016</v>
       </c>
       <c r="K118" t="n">
-        <v>7.692307692307608</v>
+        <v>-11.11111111111098</v>
       </c>
       <c r="L118" t="n">
         <v>14.2</v>
@@ -6521,7 +6543,7 @@
         <v>8.700000000000015</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L119" t="n">
         <v>14.18</v>
@@ -6572,7 +6594,7 @@
         <v>8.900000000000015</v>
       </c>
       <c r="K120" t="n">
-        <v>12.49999999999989</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>14.17</v>
@@ -6623,7 +6645,7 @@
         <v>9.100000000000014</v>
       </c>
       <c r="K121" t="n">
-        <v>-12.49999999999989</v>
+        <v>-16.66666666666657</v>
       </c>
       <c r="L121" t="n">
         <v>14.15</v>
@@ -6674,7 +6696,7 @@
         <v>9.300000000000013</v>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>-7.692307692307796</v>
       </c>
       <c r="L122" t="n">
         <v>14.15</v>
@@ -6725,7 +6747,7 @@
         <v>9.500000000000012</v>
       </c>
       <c r="K123" t="n">
-        <v>-9.999999999999929</v>
+        <v>-7.692307692307672</v>
       </c>
       <c r="L123" t="n">
         <v>14.12</v>
@@ -6776,7 +6798,7 @@
         <v>9.500000000000012</v>
       </c>
       <c r="K124" t="n">
-        <v>-9.999999999999929</v>
+        <v>-27.27272727272739</v>
       </c>
       <c r="L124" t="n">
         <v>14.11</v>
@@ -6831,7 +6853,7 @@
         <v>9.500000000000012</v>
       </c>
       <c r="K125" t="n">
-        <v>-15.78947368421052</v>
+        <v>-20</v>
       </c>
       <c r="L125" t="n">
         <v>14.08</v>
@@ -6888,7 +6910,7 @@
         <v>9.500000000000012</v>
       </c>
       <c r="K126" t="n">
-        <v>-15.78947368421052</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L126" t="n">
         <v>14.06</v>
@@ -6945,7 +6967,7 @@
         <v>9.600000000000012</v>
       </c>
       <c r="K127" t="n">
-        <v>-19.99999999999996</v>
+        <v>-20</v>
       </c>
       <c r="L127" t="n">
         <v>14.04</v>
@@ -7000,7 +7022,7 @@
         <v>9.700000000000012</v>
       </c>
       <c r="K128" t="n">
-        <v>-9.999999999999947</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>14.03</v>
@@ -7057,7 +7079,7 @@
         <v>9.700000000000012</v>
       </c>
       <c r="K129" t="n">
-        <v>-9.999999999999947</v>
+        <v>-25</v>
       </c>
       <c r="L129" t="n">
         <v>14.03</v>
@@ -7114,7 +7136,7 @@
         <v>9.700000000000012</v>
       </c>
       <c r="K130" t="n">
-        <v>-15.78947368421055</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>14.01000000000001</v>
@@ -7171,7 +7193,7 @@
         <v>9.700000000000012</v>
       </c>
       <c r="K131" t="n">
-        <v>-11.11111111111107</v>
+        <v>-50</v>
       </c>
       <c r="L131" t="n">
         <v>14.01000000000001</v>
@@ -7228,7 +7250,7 @@
         <v>9.800000000000011</v>
       </c>
       <c r="K132" t="n">
-        <v>-15.78947368421047</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L132" t="n">
         <v>13.98000000000001</v>
@@ -7285,7 +7307,7 @@
         <v>9.800000000000011</v>
       </c>
       <c r="K133" t="n">
-        <v>-22.22222222222225</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L133" t="n">
         <v>13.97000000000001</v>
@@ -7342,7 +7364,7 @@
         <v>9.900000000000011</v>
       </c>
       <c r="K134" t="n">
-        <v>-5.882352941176458</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
         <v>13.97000000000001</v>
@@ -7399,7 +7421,7 @@
         <v>10.00000000000001</v>
       </c>
       <c r="K135" t="n">
-        <v>-25.00000000000008</v>
+        <v>-20</v>
       </c>
       <c r="L135" t="n">
         <v>13.96000000000001</v>
@@ -7456,7 +7478,7 @@
         <v>10.10000000000001</v>
       </c>
       <c r="K136" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L136" t="n">
         <v>13.94000000000001</v>
@@ -7513,7 +7535,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K137" t="n">
-        <v>-12.5</v>
+        <v>-20</v>
       </c>
       <c r="L137" t="n">
         <v>13.94000000000001</v>
@@ -7570,7 +7592,7 @@
         <v>10.30000000000001</v>
       </c>
       <c r="K138" t="n">
-        <v>-17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L138" t="n">
         <v>13.92000000000001</v>
@@ -7627,7 +7649,7 @@
         <v>10.30000000000001</v>
       </c>
       <c r="K139" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L139" t="n">
         <v>13.90000000000001</v>
@@ -7684,7 +7706,7 @@
         <v>10.30000000000001</v>
       </c>
       <c r="K140" t="n">
-        <v>-28.57142857142857</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L140" t="n">
         <v>13.88000000000001</v>
@@ -7741,7 +7763,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K141" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>13.87000000000001</v>
@@ -7798,7 +7820,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K142" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
         <v>13.87000000000001</v>
@@ -7855,7 +7877,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K143" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L143" t="n">
         <v>13.87000000000001</v>
@@ -7912,7 +7934,7 @@
         <v>10.40000000000001</v>
       </c>
       <c r="K144" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
         <v>13.86000000000001</v>
@@ -7969,7 +7991,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L145" t="n">
         <v>13.87000000000001</v>
@@ -8026,7 +8048,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L146" t="n">
         <v>13.89000000000001</v>
@@ -8077,7 +8099,7 @@
         <v>10.70000000000001</v>
       </c>
       <c r="K147" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
         <v>13.88000000000001</v>
@@ -8128,7 +8150,7 @@
         <v>10.70000000000001</v>
       </c>
       <c r="K148" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
         <v>13.88000000000001</v>
@@ -8179,7 +8201,7 @@
         <v>10.70000000000001</v>
       </c>
       <c r="K149" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>13.88000000000001</v>
@@ -8230,7 +8252,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L150" t="n">
         <v>13.90000000000001</v>
@@ -8281,7 +8303,7 @@
         <v>11.00000000000001</v>
       </c>
       <c r="K151" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L151" t="n">
         <v>13.92000000000001</v>
@@ -8332,7 +8354,7 @@
         <v>11.10000000000001</v>
       </c>
       <c r="K152" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L152" t="n">
         <v>13.93000000000001</v>
@@ -8434,7 +8456,7 @@
         <v>11.30000000000001</v>
       </c>
       <c r="K154" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L154" t="n">
         <v>13.92000000000001</v>
@@ -8485,7 +8507,7 @@
         <v>11.30000000000001</v>
       </c>
       <c r="K155" t="n">
-        <v>-7.692307692307693</v>
+        <v>-25</v>
       </c>
       <c r="L155" t="n">
         <v>13.90000000000001</v>
@@ -8587,7 +8609,7 @@
         <v>11.30000000000001</v>
       </c>
       <c r="K157" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>13.88000000000001</v>
@@ -8638,7 +8660,7 @@
         <v>11.40000000000001</v>
       </c>
       <c r="K158" t="n">
-        <v>-9.090909090909239</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L158" t="n">
         <v>13.87000000000001</v>
@@ -8689,7 +8711,7 @@
         <v>11.50000000000001</v>
       </c>
       <c r="K159" t="n">
-        <v>0</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L159" t="n">
         <v>13.87000000000001</v>
@@ -8740,7 +8762,7 @@
         <v>11.50000000000001</v>
       </c>
       <c r="K160" t="n">
-        <v>0</v>
+        <v>-59.99999999999957</v>
       </c>
       <c r="L160" t="n">
         <v>13.85000000000001</v>
@@ -8791,7 +8813,7 @@
         <v>11.50000000000001</v>
       </c>
       <c r="K161" t="n">
-        <v>-9.090909090909062</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L161" t="n">
         <v>13.82000000000001</v>
@@ -8893,7 +8915,7 @@
         <v>11.60000000000001</v>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L163" t="n">
         <v>13.81000000000001</v>
@@ -8944,7 +8966,7 @@
         <v>11.70000000000001</v>
       </c>
       <c r="K164" t="n">
-        <v>-7.692307692307672</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>13.81000000000001</v>
@@ -8995,7 +9017,7 @@
         <v>11.80000000000001</v>
       </c>
       <c r="K165" t="n">
-        <v>-7.692307692307672</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L165" t="n">
         <v>13.82000000000001</v>
@@ -9046,7 +9068,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K166" t="n">
-        <v>-20.00000000000005</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L166" t="n">
         <v>13.81000000000001</v>
@@ -9097,7 +9119,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K167" t="n">
-        <v>-7.692307692307796</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>13.80000000000001</v>
@@ -9199,7 +9221,7 @@
         <v>12.20000000000001</v>
       </c>
       <c r="K169" t="n">
-        <v>6.666666666666635</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L169" t="n">
         <v>13.82000000000001</v>
@@ -9250,7 +9272,7 @@
         <v>12.20000000000001</v>
       </c>
       <c r="K170" t="n">
-        <v>-7.69230769230765</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L170" t="n">
         <v>13.83000000000001</v>
@@ -9301,7 +9323,7 @@
         <v>12.40000000000001</v>
       </c>
       <c r="K171" t="n">
-        <v>-28.57142857142851</v>
+        <v>-25.00000000000006</v>
       </c>
       <c r="L171" t="n">
         <v>13.82000000000001</v>
@@ -9352,7 +9374,7 @@
         <v>12.50000000000001</v>
       </c>
       <c r="K172" t="n">
-        <v>-28.57142857142851</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L172" t="n">
         <v>13.79000000000001</v>
@@ -9403,7 +9425,7 @@
         <v>12.70000000000001</v>
       </c>
       <c r="K173" t="n">
-        <v>-6.666666666666619</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>13.78000000000001</v>
@@ -9454,7 +9476,7 @@
         <v>12.70000000000001</v>
       </c>
       <c r="K174" t="n">
-        <v>0</v>
+        <v>-11.11111111111102</v>
       </c>
       <c r="L174" t="n">
         <v>13.78000000000001</v>
@@ -9505,7 +9527,7 @@
         <v>12.70000000000001</v>
       </c>
       <c r="K175" t="n">
-        <v>0</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L175" t="n">
         <v>13.77000000000001</v>
@@ -9556,7 +9578,7 @@
         <v>12.70000000000001</v>
       </c>
       <c r="K176" t="n">
-        <v>0</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L176" t="n">
         <v>13.78000000000001</v>
@@ -9607,7 +9629,7 @@
         <v>12.80000000000001</v>
       </c>
       <c r="K177" t="n">
-        <v>6.666666666666619</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L177" t="n">
         <v>13.80000000000001</v>
@@ -9658,7 +9680,7 @@
         <v>12.80000000000001</v>
       </c>
       <c r="K178" t="n">
-        <v>14.28571428571432</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>13.81000000000001</v>
@@ -9709,7 +9731,7 @@
         <v>12.80000000000001</v>
       </c>
       <c r="K179" t="n">
-        <v>7.69230769230765</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>13.81000000000001</v>
@@ -9760,7 +9782,7 @@
         <v>12.90000000000001</v>
       </c>
       <c r="K180" t="n">
-        <v>14.28571428571421</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L180" t="n">
         <v>13.82000000000001</v>
@@ -9811,7 +9833,7 @@
         <v>12.90000000000001</v>
       </c>
       <c r="K181" t="n">
-        <v>14.28571428571421</v>
+        <v>100</v>
       </c>
       <c r="L181" t="n">
         <v>13.85000000000001</v>
@@ -9862,7 +9884,7 @@
         <v>13.00000000000001</v>
       </c>
       <c r="K182" t="n">
-        <v>14.28571428571421</v>
+        <v>100</v>
       </c>
       <c r="L182" t="n">
         <v>13.90000000000001</v>
@@ -9913,7 +9935,7 @@
         <v>13.00000000000001</v>
       </c>
       <c r="K183" t="n">
-        <v>14.28571428571421</v>
+        <v>100</v>
       </c>
       <c r="L183" t="n">
         <v>13.93000000000001</v>
@@ -9964,7 +9986,7 @@
         <v>13.00000000000001</v>
       </c>
       <c r="K184" t="n">
-        <v>23.07692307692295</v>
+        <v>100</v>
       </c>
       <c r="L184" t="n">
         <v>13.96000000000001</v>
@@ -10015,7 +10037,7 @@
         <v>13.10000000000001</v>
       </c>
       <c r="K185" t="n">
-        <v>7.69230769230765</v>
+        <v>50</v>
       </c>
       <c r="L185" t="n">
         <v>13.98000000000001</v>
@@ -10066,7 +10088,7 @@
         <v>13.20000000000001</v>
       </c>
       <c r="K186" t="n">
-        <v>16.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
         <v>13.99000000000001</v>
@@ -10117,7 +10139,7 @@
         <v>13.20000000000001</v>
       </c>
       <c r="K187" t="n">
-        <v>16.66666666666674</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>13.99000000000001</v>
@@ -10168,7 +10190,7 @@
         <v>13.20000000000001</v>
       </c>
       <c r="K188" t="n">
-        <v>9.090909090909062</v>
+        <v>0</v>
       </c>
       <c r="L188" t="n">
         <v>13.99000000000001</v>
@@ -10219,7 +10241,7 @@
         <v>13.20000000000001</v>
       </c>
       <c r="K189" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L189" t="n">
         <v>13.99000000000001</v>
@@ -10270,7 +10292,7 @@
         <v>13.20000000000001</v>
       </c>
       <c r="K190" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L190" t="n">
         <v>13.98000000000001</v>
@@ -10321,7 +10343,7 @@
         <v>13.30000000000001</v>
       </c>
       <c r="K191" t="n">
-        <v>33.33333333333346</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L191" t="n">
         <v>13.98000000000001</v>
@@ -10372,7 +10394,7 @@
         <v>13.30000000000001</v>
       </c>
       <c r="K192" t="n">
-        <v>50.00000000000011</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L192" t="n">
         <v>13.97000000000001</v>
@@ -10423,7 +10445,7 @@
         <v>13.30000000000001</v>
       </c>
       <c r="K193" t="n">
-        <v>33.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L193" t="n">
         <v>13.96000000000001</v>
@@ -10474,7 +10496,7 @@
         <v>13.40000000000001</v>
       </c>
       <c r="K194" t="n">
-        <v>42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L194" t="n">
         <v>13.96000000000001</v>
@@ -10525,7 +10547,7 @@
         <v>13.50000000000001</v>
       </c>
       <c r="K195" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L195" t="n">
         <v>13.98000000000001</v>
@@ -10576,7 +10598,7 @@
         <v>13.50000000000001</v>
       </c>
       <c r="K196" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L196" t="n">
         <v>14.01000000000001</v>
@@ -10627,7 +10649,7 @@
         <v>13.60000000000001</v>
       </c>
       <c r="K197" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L197" t="n">
         <v>14.03</v>
@@ -10678,7 +10700,7 @@
         <v>13.60000000000001</v>
       </c>
       <c r="K198" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L198" t="n">
         <v>14.05</v>
@@ -10729,7 +10751,7 @@
         <v>13.60000000000001</v>
       </c>
       <c r="K199" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L199" t="n">
         <v>14.07</v>
@@ -10780,7 +10802,7 @@
         <v>13.70000000000001</v>
       </c>
       <c r="K200" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L200" t="n">
         <v>14.1</v>
@@ -10831,7 +10853,7 @@
         <v>13.70000000000001</v>
       </c>
       <c r="K201" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L201" t="n">
         <v>14.12</v>
@@ -10882,7 +10904,7 @@
         <v>13.70000000000001</v>
       </c>
       <c r="K202" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L202" t="n">
         <v>14.14</v>
@@ -10933,7 +10955,7 @@
         <v>13.80000000000001</v>
       </c>
       <c r="K203" t="n">
-        <v>25.00000000000017</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L203" t="n">
         <v>14.17</v>
@@ -10984,7 +11006,7 @@
         <v>13.80000000000001</v>
       </c>
       <c r="K204" t="n">
-        <v>25.00000000000017</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L204" t="n">
         <v>14.19</v>
@@ -11035,7 +11057,7 @@
         <v>13.80000000000001</v>
       </c>
       <c r="K205" t="n">
-        <v>42.857142857143</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L205" t="n">
         <v>14.2</v>
@@ -11086,7 +11108,7 @@
         <v>13.80000000000001</v>
       </c>
       <c r="K206" t="n">
-        <v>66.66666666666676</v>
+        <v>100</v>
       </c>
       <c r="L206" t="n">
         <v>14.21</v>
@@ -11137,7 +11159,7 @@
         <v>13.80000000000001</v>
       </c>
       <c r="K207" t="n">
-        <v>66.66666666666676</v>
+        <v>100</v>
       </c>
       <c r="L207" t="n">
         <v>14.23000000000001</v>
@@ -11188,7 +11210,7 @@
         <v>13.80000000000001</v>
       </c>
       <c r="K208" t="n">
-        <v>66.66666666666676</v>
+        <v>100</v>
       </c>
       <c r="L208" t="n">
         <v>14.25000000000001</v>
@@ -11239,7 +11261,7 @@
         <v>13.80000000000001</v>
       </c>
       <c r="K209" t="n">
-        <v>66.66666666666676</v>
+        <v>100</v>
       </c>
       <c r="L209" t="n">
         <v>14.27000000000001</v>
@@ -11290,7 +11312,7 @@
         <v>13.90000000000001</v>
       </c>
       <c r="K210" t="n">
-        <v>42.85714285714264</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
         <v>14.27000000000001</v>
@@ -11341,7 +11363,7 @@
         <v>13.90000000000001</v>
       </c>
       <c r="K211" t="n">
-        <v>33.33333333333314</v>
+        <v>0</v>
       </c>
       <c r="L211" t="n">
         <v>14.27000000000001</v>
@@ -11392,7 +11414,7 @@
         <v>14.00000000000001</v>
       </c>
       <c r="K212" t="n">
-        <v>42.85714285714278</v>
+        <v>0</v>
       </c>
       <c r="L212" t="n">
         <v>14.28000000000001</v>
@@ -11443,7 +11465,7 @@
         <v>14.00000000000001</v>
       </c>
       <c r="K213" t="n">
-        <v>42.85714285714278</v>
+        <v>0</v>
       </c>
       <c r="L213" t="n">
         <v>14.28000000000001</v>
@@ -11494,7 +11516,7 @@
         <v>14.00000000000001</v>
       </c>
       <c r="K214" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L214" t="n">
         <v>14.28000000000001</v>
@@ -11545,7 +11567,7 @@
         <v>14.10000000000001</v>
       </c>
       <c r="K215" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L215" t="n">
         <v>14.27000000000001</v>
@@ -11596,7 +11618,7 @@
         <v>14.20000000000002</v>
       </c>
       <c r="K216" t="n">
-        <v>14.28571428571436</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
         <v>14.27000000000001</v>
@@ -11647,7 +11669,7 @@
         <v>14.30000000000002</v>
       </c>
       <c r="K217" t="n">
-        <v>14.28571428571407</v>
+        <v>-20</v>
       </c>
       <c r="L217" t="n">
         <v>14.26000000000001</v>
@@ -11698,7 +11720,7 @@
         <v>14.30000000000002</v>
       </c>
       <c r="K218" t="n">
-        <v>14.28571428571407</v>
+        <v>-20</v>
       </c>
       <c r="L218" t="n">
         <v>14.25000000000001</v>
@@ -11749,7 +11771,7 @@
         <v>14.30000000000002</v>
       </c>
       <c r="K219" t="n">
-        <v>14.28571428571407</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
         <v>14.24</v>
@@ -11800,7 +11822,7 @@
         <v>14.40000000000002</v>
       </c>
       <c r="K220" t="n">
-        <v>-14.28571428571407</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L220" t="n">
         <v>14.23</v>
@@ -11851,7 +11873,7 @@
         <v>14.50000000000002</v>
       </c>
       <c r="K221" t="n">
-        <v>0</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L221" t="n">
         <v>14.23</v>
@@ -11902,7 +11924,7 @@
         <v>14.60000000000002</v>
       </c>
       <c r="K222" t="n">
-        <v>-11.11111111111098</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L222" t="n">
         <v>14.21</v>
@@ -11953,7 +11975,7 @@
         <v>14.70000000000002</v>
       </c>
       <c r="K223" t="n">
-        <v>-11.1111111111112</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L223" t="n">
         <v>14.2</v>
@@ -12004,7 +12026,7 @@
         <v>14.80000000000002</v>
       </c>
       <c r="K224" t="n">
-        <v>0</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L224" t="n">
         <v>14.2</v>
@@ -12055,7 +12077,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K225" t="n">
-        <v>-9.09090909090915</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L225" t="n">
         <v>14.2</v>
@@ -12106,7 +12128,7 @@
         <v>15.00000000000002</v>
       </c>
       <c r="K226" t="n">
-        <v>-16.66666666666664</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L226" t="n">
         <v>14.18</v>
@@ -12157,7 +12179,7 @@
         <v>15.00000000000002</v>
       </c>
       <c r="K227" t="n">
-        <v>-16.66666666666664</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L227" t="n">
         <v>14.17</v>
@@ -12208,7 +12230,7 @@
         <v>15.00000000000002</v>
       </c>
       <c r="K228" t="n">
-        <v>-16.66666666666664</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L228" t="n">
         <v>14.16</v>
@@ -12259,7 +12281,7 @@
         <v>15.00000000000002</v>
       </c>
       <c r="K229" t="n">
-        <v>-16.66666666666664</v>
+        <v>0</v>
       </c>
       <c r="L229" t="n">
         <v>14.15</v>
@@ -12310,7 +12332,7 @@
         <v>15.20000000000002</v>
       </c>
       <c r="K230" t="n">
-        <v>7.692307692307756</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L230" t="n">
         <v>14.17</v>
@@ -12361,7 +12383,7 @@
         <v>15.30000000000002</v>
       </c>
       <c r="K231" t="n">
-        <v>0</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L231" t="n">
         <v>14.17</v>
@@ -12412,7 +12434,7 @@
         <v>15.40000000000002</v>
       </c>
       <c r="K232" t="n">
-        <v>0</v>
+        <v>14.28571428571436</v>
       </c>
       <c r="L232" t="n">
         <v>14.19</v>
@@ -12514,7 +12536,7 @@
         <v>15.50000000000002</v>
       </c>
       <c r="K234" t="n">
-        <v>-6.666666666666714</v>
+        <v>0</v>
       </c>
       <c r="L234" t="n">
         <v>14.19</v>
@@ -12565,7 +12587,7 @@
         <v>15.60000000000002</v>
       </c>
       <c r="K235" t="n">
-        <v>6.666666666666714</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L235" t="n">
         <v>14.20000000000001</v>
@@ -12616,7 +12638,7 @@
         <v>15.70000000000003</v>
       </c>
       <c r="K236" t="n">
-        <v>-6.666666666666714</v>
+        <v>14.28571428571407</v>
       </c>
       <c r="L236" t="n">
         <v>14.21</v>
@@ -12667,7 +12689,7 @@
         <v>15.70000000000003</v>
       </c>
       <c r="K237" t="n">
-        <v>0</v>
+        <v>14.28571428571407</v>
       </c>
       <c r="L237" t="n">
         <v>14.22</v>
@@ -12718,7 +12740,7 @@
         <v>15.70000000000003</v>
       </c>
       <c r="K238" t="n">
-        <v>0</v>
+        <v>14.28571428571407</v>
       </c>
       <c r="L238" t="n">
         <v>14.23</v>
@@ -12769,7 +12791,7 @@
         <v>15.70000000000003</v>
       </c>
       <c r="K239" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L239" t="n">
         <v>14.24</v>
@@ -12820,7 +12842,7 @@
         <v>15.70000000000003</v>
       </c>
       <c r="K240" t="n">
-        <v>7.692307692307608</v>
+        <v>0</v>
       </c>
       <c r="L240" t="n">
         <v>14.23</v>
@@ -12871,7 +12893,7 @@
         <v>15.70000000000003</v>
       </c>
       <c r="K241" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L241" t="n">
         <v>14.23</v>
@@ -12922,7 +12944,7 @@
         <v>15.80000000000003</v>
       </c>
       <c r="K242" t="n">
-        <v>0</v>
+        <v>-49.99999999999978</v>
       </c>
       <c r="L242" t="n">
         <v>14.21</v>
@@ -12973,7 +12995,7 @@
         <v>16.00000000000003</v>
       </c>
       <c r="K243" t="n">
-        <v>7.692307692307724</v>
+        <v>20.00000000000007</v>
       </c>
       <c r="L243" t="n">
         <v>14.21</v>
@@ -13024,7 +13046,7 @@
         <v>16.20000000000003</v>
       </c>
       <c r="K244" t="n">
-        <v>-14.28571428571421</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L244" t="n">
         <v>14.2</v>
@@ -13075,7 +13097,7 @@
         <v>16.20000000000003</v>
       </c>
       <c r="K245" t="n">
-        <v>-7.692307692307587</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L245" t="n">
         <v>14.18</v>
@@ -13126,7 +13148,7 @@
         <v>16.20000000000003</v>
       </c>
       <c r="K246" t="n">
-        <v>0</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L246" t="n">
         <v>14.17</v>
@@ -13177,7 +13199,7 @@
         <v>16.20000000000003</v>
       </c>
       <c r="K247" t="n">
-        <v>0</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L247" t="n">
         <v>14.16</v>
@@ -13228,7 +13250,7 @@
         <v>16.20000000000003</v>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L248" t="n">
         <v>14.15</v>
@@ -13279,7 +13301,7 @@
         <v>16.40000000000003</v>
       </c>
       <c r="K249" t="n">
-        <v>14.2857142857142</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L249" t="n">
         <v>14.16</v>
@@ -13330,7 +13352,7 @@
         <v>16.50000000000004</v>
       </c>
       <c r="K250" t="n">
-        <v>-7.692307692307702</v>
+        <v>0</v>
       </c>
       <c r="L250" t="n">
         <v>14.16</v>
@@ -13381,7 +13403,7 @@
         <v>16.50000000000004</v>
       </c>
       <c r="K251" t="n">
-        <v>0</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L251" t="n">
         <v>14.16</v>
@@ -13432,7 +13454,7 @@
         <v>16.50000000000004</v>
       </c>
       <c r="K252" t="n">
-        <v>-9.090909090909104</v>
+        <v>-20</v>
       </c>
       <c r="L252" t="n">
         <v>14.17</v>
@@ -13483,7 +13505,7 @@
         <v>16.60000000000004</v>
       </c>
       <c r="K253" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L253" t="n">
         <v>14.17</v>
@@ -13534,7 +13556,7 @@
         <v>16.60000000000004</v>
       </c>
       <c r="K254" t="n">
-        <v>9.090909090909104</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L254" t="n">
         <v>14.19</v>
@@ -13585,7 +13607,7 @@
         <v>16.60000000000004</v>
       </c>
       <c r="K255" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L255" t="n">
         <v>14.21</v>
@@ -13636,7 +13658,7 @@
         <v>16.60000000000004</v>
       </c>
       <c r="K256" t="n">
-        <v>11.11111111111113</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L256" t="n">
         <v>14.23000000000001</v>
@@ -13687,7 +13709,7 @@
         <v>16.60000000000004</v>
       </c>
       <c r="K257" t="n">
-        <v>11.11111111111113</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L257" t="n">
         <v>14.25000000000001</v>
@@ -13738,7 +13760,7 @@
         <v>16.60000000000004</v>
       </c>
       <c r="K258" t="n">
-        <v>11.11111111111113</v>
+        <v>0</v>
       </c>
       <c r="L258" t="n">
         <v>14.27000000000001</v>
@@ -13789,7 +13811,7 @@
         <v>16.60000000000004</v>
       </c>
       <c r="K259" t="n">
-        <v>11.11111111111113</v>
+        <v>100</v>
       </c>
       <c r="L259" t="n">
         <v>14.27000000000001</v>
@@ -13891,7 +13913,7 @@
         <v>16.80000000000004</v>
       </c>
       <c r="K261" t="n">
-        <v>9.090909090909104</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L261" t="n">
         <v>14.28000000000001</v>
@@ -13942,7 +13964,7 @@
         <v>16.80000000000004</v>
       </c>
       <c r="K262" t="n">
-        <v>19.99999999999982</v>
+        <v>0</v>
       </c>
       <c r="L262" t="n">
         <v>14.29000000000002</v>
@@ -14044,7 +14066,7 @@
         <v>16.80000000000004</v>
       </c>
       <c r="K264" t="n">
-        <v>33.33333333333304</v>
+        <v>0</v>
       </c>
       <c r="L264" t="n">
         <v>14.29000000000002</v>
@@ -14095,7 +14117,7 @@
         <v>16.80000000000004</v>
       </c>
       <c r="K265" t="n">
-        <v>33.33333333333304</v>
+        <v>0</v>
       </c>
       <c r="L265" t="n">
         <v>14.29000000000002</v>
@@ -14146,7 +14168,7 @@
         <v>16.80000000000004</v>
       </c>
       <c r="K266" t="n">
-        <v>33.33333333333304</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
         <v>14.29000000000002</v>
@@ -14197,7 +14219,7 @@
         <v>16.90000000000004</v>
       </c>
       <c r="K267" t="n">
-        <v>42.85714285714235</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L267" t="n">
         <v>14.30000000000001</v>
@@ -14248,7 +14270,7 @@
         <v>16.90000000000004</v>
       </c>
       <c r="K268" t="n">
-        <v>42.85714285714235</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L268" t="n">
         <v>14.31000000000001</v>
@@ -14299,7 +14321,7 @@
         <v>16.90000000000004</v>
       </c>
       <c r="K269" t="n">
-        <v>19.99999999999964</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L269" t="n">
         <v>14.32000000000001</v>
@@ -14350,7 +14372,7 @@
         <v>16.90000000000004</v>
       </c>
       <c r="K270" t="n">
-        <v>49.99999999999956</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L270" t="n">
         <v>14.34000000000001</v>
@@ -14401,7 +14423,7 @@
         <v>16.90000000000004</v>
       </c>
       <c r="K271" t="n">
-        <v>49.99999999999956</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L271" t="n">
         <v>14.35000000000001</v>
@@ -14452,7 +14474,7 @@
         <v>16.90000000000004</v>
       </c>
       <c r="K272" t="n">
-        <v>49.99999999999956</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L272" t="n">
         <v>14.36000000000001</v>
@@ -14503,7 +14525,7 @@
         <v>16.90000000000004</v>
       </c>
       <c r="K273" t="n">
-        <v>33.33333333333275</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L273" t="n">
         <v>14.37000000000001</v>
@@ -14554,7 +14576,7 @@
         <v>16.90000000000004</v>
       </c>
       <c r="K274" t="n">
-        <v>33.33333333333275</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L274" t="n">
         <v>14.38000000000001</v>
@@ -14605,7 +14627,7 @@
         <v>16.90000000000004</v>
       </c>
       <c r="K275" t="n">
-        <v>33.33333333333275</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L275" t="n">
         <v>14.39000000000001</v>
@@ -14655,9 +14677,7 @@
       <c r="J276" t="n">
         <v>16.90000000000004</v>
       </c>
-      <c r="K276" t="n">
-        <v>33.33333333333275</v>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>14.40000000000001</v>
       </c>
@@ -14707,7 +14727,7 @@
         <v>17.00000000000004</v>
       </c>
       <c r="K277" t="n">
-        <v>49.99999999999911</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L277" t="n">
         <v>14.41000000000001</v>
@@ -14758,7 +14778,7 @@
         <v>17.00000000000004</v>
       </c>
       <c r="K278" t="n">
-        <v>49.99999999999911</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L278" t="n">
         <v>14.42000000000001</v>
@@ -14809,7 +14829,7 @@
         <v>17.00000000000004</v>
       </c>
       <c r="K279" t="n">
-        <v>49.99999999999911</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L279" t="n">
         <v>14.43000000000001</v>
@@ -14860,7 +14880,7 @@
         <v>17.10000000000004</v>
       </c>
       <c r="K280" t="n">
-        <v>49.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L280" t="n">
         <v>14.43000000000001</v>
@@ -14911,7 +14931,7 @@
         <v>17.20000000000005</v>
       </c>
       <c r="K281" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L281" t="n">
         <v>14.42000000000001</v>
@@ -14962,7 +14982,7 @@
         <v>17.20000000000005</v>
       </c>
       <c r="K282" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L282" t="n">
         <v>14.41000000000001</v>
@@ -15013,7 +15033,7 @@
         <v>17.40000000000004</v>
       </c>
       <c r="K283" t="n">
-        <v>33.33333333333294</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L283" t="n">
         <v>14.42000000000001</v>
@@ -15064,7 +15084,7 @@
         <v>17.40000000000004</v>
       </c>
       <c r="K284" t="n">
-        <v>33.33333333333294</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L284" t="n">
         <v>14.43000000000001</v>
@@ -15115,7 +15135,7 @@
         <v>17.50000000000004</v>
       </c>
       <c r="K285" t="n">
-        <v>14.28571428571418</v>
+        <v>0</v>
       </c>
       <c r="L285" t="n">
         <v>14.43000000000001</v>
@@ -15166,7 +15186,7 @@
         <v>17.60000000000004</v>
       </c>
       <c r="K286" t="n">
-        <v>24.99999999999978</v>
+        <v>0</v>
       </c>
       <c r="L286" t="n">
         <v>14.44000000000001</v>
@@ -15217,7 +15237,7 @@
         <v>17.70000000000005</v>
       </c>
       <c r="K287" t="n">
-        <v>0</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L287" t="n">
         <v>14.43000000000001</v>
@@ -15268,7 +15288,7 @@
         <v>17.80000000000005</v>
       </c>
       <c r="K288" t="n">
-        <v>-11.111111111111</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L288" t="n">
         <v>14.41000000000001</v>
@@ -15370,7 +15390,7 @@
         <v>17.90000000000005</v>
       </c>
       <c r="K290" t="n">
-        <v>0</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L290" t="n">
         <v>14.40000000000001</v>
@@ -15421,7 +15441,7 @@
         <v>17.90000000000005</v>
       </c>
       <c r="K291" t="n">
-        <v>0</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L291" t="n">
         <v>14.41000000000001</v>
@@ -15472,7 +15492,7 @@
         <v>18.00000000000005</v>
       </c>
       <c r="K292" t="n">
-        <v>9.090909090908989</v>
+        <v>0</v>
       </c>
       <c r="L292" t="n">
         <v>14.43000000000001</v>
@@ -15523,7 +15543,7 @@
         <v>18.00000000000005</v>
       </c>
       <c r="K293" t="n">
-        <v>9.090909090908989</v>
+        <v>0</v>
       </c>
       <c r="L293" t="n">
         <v>14.43000000000001</v>
@@ -15625,7 +15645,7 @@
         <v>18.20000000000005</v>
       </c>
       <c r="K295" t="n">
-        <v>7.692307692307598</v>
+        <v>0</v>
       </c>
       <c r="L295" t="n">
         <v>14.43000000000001</v>
@@ -15676,7 +15696,7 @@
         <v>18.20000000000005</v>
       </c>
       <c r="K296" t="n">
-        <v>7.692307692307598</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L296" t="n">
         <v>14.43000000000001</v>
@@ -15727,7 +15747,7 @@
         <v>18.30000000000005</v>
       </c>
       <c r="K297" t="n">
-        <v>-7.692307692307598</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L297" t="n">
         <v>14.43000000000001</v>
@@ -15778,7 +15798,7 @@
         <v>18.30000000000005</v>
       </c>
       <c r="K298" t="n">
-        <v>-7.692307692307598</v>
+        <v>0</v>
       </c>
       <c r="L298" t="n">
         <v>14.44000000000001</v>
@@ -15829,7 +15849,7 @@
         <v>18.40000000000006</v>
       </c>
       <c r="K299" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L299" t="n">
         <v>14.45000000000001</v>
@@ -15931,7 +15951,7 @@
         <v>18.50000000000006</v>
       </c>
       <c r="K301" t="n">
-        <v>7.692307692307598</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L301" t="n">
         <v>14.45000000000001</v>
@@ -15982,7 +16002,7 @@
         <v>18.50000000000006</v>
       </c>
       <c r="K302" t="n">
-        <v>7.692307692307598</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L302" t="n">
         <v>14.44000000000001</v>
@@ -16033,7 +16053,7 @@
         <v>18.60000000000006</v>
       </c>
       <c r="K303" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L303" t="n">
         <v>14.44000000000001</v>
@@ -16084,7 +16104,7 @@
         <v>18.80000000000006</v>
       </c>
       <c r="K304" t="n">
-        <v>-14.28571428571411</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L304" t="n">
         <v>14.43000000000001</v>
@@ -16135,7 +16155,7 @@
         <v>18.90000000000006</v>
       </c>
       <c r="K305" t="n">
-        <v>0</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L305" t="n">
         <v>14.42000000000001</v>
@@ -16186,7 +16206,7 @@
         <v>19.00000000000006</v>
       </c>
       <c r="K306" t="n">
-        <v>0</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L306" t="n">
         <v>14.42000000000001</v>
@@ -16237,7 +16257,7 @@
         <v>19.00000000000006</v>
       </c>
       <c r="K307" t="n">
-        <v>7.692307692307598</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L307" t="n">
         <v>14.43000000000001</v>
@@ -16288,7 +16308,7 @@
         <v>19.10000000000006</v>
       </c>
       <c r="K308" t="n">
-        <v>7.692307692307598</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L308" t="n">
         <v>14.43000000000001</v>
@@ -16543,7 +16563,7 @@
         <v>19.20000000000006</v>
       </c>
       <c r="K313" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L313" t="n">
         <v>14.43000000000001</v>
@@ -16594,7 +16614,7 @@
         <v>19.20000000000006</v>
       </c>
       <c r="K314" t="n">
-        <v>9.090909090908989</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L314" t="n">
         <v>14.45000000000001</v>
@@ -16798,7 +16818,7 @@
         <v>19.40000000000006</v>
       </c>
       <c r="K318" t="n">
-        <v>9.090909090908989</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L318" t="n">
         <v>14.46000000000001</v>
@@ -16849,7 +16869,7 @@
         <v>19.40000000000006</v>
       </c>
       <c r="K319" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L319" t="n">
         <v>14.47000000000001</v>
@@ -16900,7 +16920,7 @@
         <v>19.40000000000006</v>
       </c>
       <c r="K320" t="n">
-        <v>11.111111111111</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L320" t="n">
         <v>14.48000000000001</v>
@@ -16951,7 +16971,7 @@
         <v>19.40000000000006</v>
       </c>
       <c r="K321" t="n">
-        <v>11.111111111111</v>
+        <v>0</v>
       </c>
       <c r="L321" t="n">
         <v>14.49000000000001</v>
@@ -17002,7 +17022,7 @@
         <v>19.50000000000006</v>
       </c>
       <c r="K322" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L322" t="n">
         <v>14.48000000000001</v>
@@ -17104,7 +17124,7 @@
         <v>19.60000000000007</v>
       </c>
       <c r="K324" t="n">
-        <v>24.99999999999967</v>
+        <v>0</v>
       </c>
       <c r="L324" t="n">
         <v>14.48000000000001</v>
@@ -17155,7 +17175,7 @@
         <v>19.60000000000007</v>
       </c>
       <c r="K325" t="n">
-        <v>14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L325" t="n">
         <v>14.48000000000001</v>
@@ -17206,7 +17226,7 @@
         <v>19.70000000000007</v>
       </c>
       <c r="K326" t="n">
-        <v>14.28571428571403</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L326" t="n">
         <v>14.49000000000001</v>
@@ -17257,7 +17277,7 @@
         <v>19.70000000000007</v>
       </c>
       <c r="K327" t="n">
-        <v>14.28571428571403</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L327" t="n">
         <v>14.51000000000001</v>
@@ -17461,7 +17481,7 @@
         <v>19.70000000000007</v>
       </c>
       <c r="K331" t="n">
-        <v>33.33333333333275</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L331" t="n">
         <v>14.55</v>
@@ -17512,7 +17532,7 @@
         <v>19.80000000000007</v>
       </c>
       <c r="K332" t="n">
-        <v>33.33333333333275</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L332" t="n">
         <v>14.58</v>
@@ -17563,7 +17583,7 @@
         <v>19.90000000000007</v>
       </c>
       <c r="K333" t="n">
-        <v>14.28571428571403</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L333" t="n">
         <v>14.59</v>
@@ -17614,7 +17634,7 @@
         <v>19.90000000000007</v>
       </c>
       <c r="K334" t="n">
-        <v>14.28571428571403</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L334" t="n">
         <v>14.6</v>
@@ -17665,7 +17685,7 @@
         <v>20.00000000000007</v>
       </c>
       <c r="K335" t="n">
-        <v>24.99999999999956</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L335" t="n">
         <v>14.62</v>
@@ -17716,7 +17736,7 @@
         <v>20.00000000000007</v>
       </c>
       <c r="K336" t="n">
-        <v>24.99999999999956</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L336" t="n">
         <v>14.63</v>
@@ -17767,7 +17787,7 @@
         <v>20.10000000000007</v>
       </c>
       <c r="K337" t="n">
-        <v>24.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L337" t="n">
         <v>14.63</v>
@@ -17818,7 +17838,7 @@
         <v>20.20000000000007</v>
       </c>
       <c r="K338" t="n">
-        <v>24.99999999999956</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L338" t="n">
         <v>14.64</v>
@@ -17869,7 +17889,7 @@
         <v>20.20000000000007</v>
       </c>
       <c r="K339" t="n">
-        <v>24.99999999999956</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L339" t="n">
         <v>14.65</v>
@@ -17920,7 +17940,7 @@
         <v>20.30000000000008</v>
       </c>
       <c r="K340" t="n">
-        <v>33.33333333333294</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L340" t="n">
         <v>14.67</v>
@@ -17971,7 +17991,7 @@
         <v>20.30000000000008</v>
       </c>
       <c r="K341" t="n">
-        <v>33.33333333333294</v>
+        <v>20</v>
       </c>
       <c r="L341" t="n">
         <v>14.69</v>
@@ -18022,7 +18042,7 @@
         <v>20.40000000000008</v>
       </c>
       <c r="K342" t="n">
-        <v>33.33333333333275</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L342" t="n">
         <v>14.69</v>
@@ -18073,7 +18093,7 @@
         <v>20.40000000000008</v>
       </c>
       <c r="K343" t="n">
-        <v>24.99999999999956</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L343" t="n">
         <v>14.7</v>
@@ -18124,7 +18144,7 @@
         <v>20.50000000000008</v>
       </c>
       <c r="K344" t="n">
-        <v>33.33333333333294</v>
+        <v>20</v>
       </c>
       <c r="L344" t="n">
         <v>14.72</v>
@@ -18175,7 +18195,7 @@
         <v>20.60000000000008</v>
       </c>
       <c r="K345" t="n">
-        <v>19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L345" t="n">
         <v>14.72</v>
@@ -18226,7 +18246,7 @@
         <v>20.60000000000008</v>
       </c>
       <c r="K346" t="n">
-        <v>11.11111111111091</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L346" t="n">
         <v>14.72</v>
@@ -18277,7 +18297,7 @@
         <v>20.70000000000008</v>
       </c>
       <c r="K347" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L347" t="n">
         <v>14.72</v>
@@ -18328,7 +18348,7 @@
         <v>20.70000000000008</v>
       </c>
       <c r="K348" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L348" t="n">
         <v>14.71</v>
@@ -18379,7 +18399,7 @@
         <v>20.70000000000008</v>
       </c>
       <c r="K349" t="n">
-        <v>0</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L349" t="n">
         <v>14.7</v>
@@ -18430,7 +18450,7 @@
         <v>20.80000000000008</v>
       </c>
       <c r="K350" t="n">
-        <v>-9.090909090908928</v>
+        <v>-59.99999999999929</v>
       </c>
       <c r="L350" t="n">
         <v>14.67</v>
@@ -18481,7 +18501,7 @@
         <v>20.80000000000008</v>
       </c>
       <c r="K351" t="n">
-        <v>-9.090909090908928</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L351" t="n">
         <v>14.64</v>
@@ -18532,7 +18552,7 @@
         <v>20.80000000000008</v>
       </c>
       <c r="K352" t="n">
-        <v>-19.99999999999964</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L352" t="n">
         <v>14.62</v>
@@ -18583,7 +18603,7 @@
         <v>20.90000000000008</v>
       </c>
       <c r="K353" t="n">
-        <v>-19.99999999999964</v>
+        <v>-99.99999999999866</v>
       </c>
       <c r="L353" t="n">
         <v>14.59</v>
@@ -18634,7 +18654,7 @@
         <v>20.90000000000008</v>
       </c>
       <c r="K354" t="n">
-        <v>-19.99999999999964</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L354" t="n">
         <v>14.55</v>
@@ -18685,7 +18705,7 @@
         <v>20.90000000000008</v>
       </c>
       <c r="K355" t="n">
-        <v>-33.33333333333275</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L355" t="n">
         <v>14.52</v>
@@ -18736,7 +18756,7 @@
         <v>21.00000000000009</v>
       </c>
       <c r="K356" t="n">
-        <v>-19.99999999999964</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L356" t="n">
         <v>14.50000000000001</v>
@@ -18787,7 +18807,7 @@
         <v>21.00000000000009</v>
       </c>
       <c r="K357" t="n">
-        <v>-11.11111111111091</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L357" t="n">
         <v>14.49000000000001</v>
@@ -18838,7 +18858,7 @@
         <v>21.00000000000009</v>
       </c>
       <c r="K358" t="n">
-        <v>-24.99999999999956</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L358" t="n">
         <v>14.48000000000001</v>
@@ -18889,7 +18909,7 @@
         <v>21.00000000000009</v>
       </c>
       <c r="K359" t="n">
-        <v>-24.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L359" t="n">
         <v>14.47000000000001</v>
@@ -18940,7 +18960,7 @@
         <v>21.00000000000009</v>
       </c>
       <c r="K360" t="n">
-        <v>-42.85714285714235</v>
+        <v>0</v>
       </c>
       <c r="L360" t="n">
         <v>14.47000000000001</v>
@@ -18991,7 +19011,7 @@
         <v>21.00000000000009</v>
       </c>
       <c r="K361" t="n">
-        <v>-42.85714285714235</v>
+        <v>0</v>
       </c>
       <c r="L361" t="n">
         <v>14.47000000000001</v>
@@ -19042,7 +19062,7 @@
         <v>21.10000000000009</v>
       </c>
       <c r="K362" t="n">
-        <v>-42.85714285714209</v>
+        <v>0</v>
       </c>
       <c r="L362" t="n">
         <v>14.46000000000001</v>
@@ -19093,7 +19113,7 @@
         <v>21.10000000000009</v>
       </c>
       <c r="K363" t="n">
-        <v>-42.85714285714209</v>
+        <v>0</v>
       </c>
       <c r="L363" t="n">
         <v>14.46000000000001</v>
@@ -19144,7 +19164,7 @@
         <v>21.20000000000009</v>
       </c>
       <c r="K364" t="n">
-        <v>-42.85714285714235</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L364" t="n">
         <v>14.47000000000001</v>
@@ -19195,7 +19215,7 @@
         <v>21.30000000000009</v>
       </c>
       <c r="K365" t="n">
-        <v>-42.85714285714209</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L365" t="n">
         <v>14.47000000000001</v>
@@ -19246,7 +19266,7 @@
         <v>21.50000000000009</v>
       </c>
       <c r="K366" t="n">
-        <v>-11.11111111111096</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L366" t="n">
         <v>14.48000000000001</v>
@@ -19297,7 +19317,7 @@
         <v>21.50000000000009</v>
       </c>
       <c r="K367" t="n">
-        <v>0</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L367" t="n">
         <v>14.49000000000001</v>
@@ -19348,7 +19368,7 @@
         <v>21.50000000000009</v>
       </c>
       <c r="K368" t="n">
-        <v>0</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L368" t="n">
         <v>14.50000000000001</v>
@@ -19399,7 +19419,7 @@
         <v>21.50000000000009</v>
       </c>
       <c r="K369" t="n">
-        <v>0</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L369" t="n">
         <v>14.51000000000001</v>
@@ -19450,7 +19470,7 @@
         <v>21.50000000000009</v>
       </c>
       <c r="K370" t="n">
-        <v>14.28571428571411</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L370" t="n">
         <v>14.52</v>
@@ -19501,7 +19521,7 @@
         <v>21.70000000000009</v>
       </c>
       <c r="K371" t="n">
-        <v>-11.111111111111</v>
+        <v>0</v>
       </c>
       <c r="L371" t="n">
         <v>14.51000000000001</v>
@@ -19552,7 +19572,7 @@
         <v>21.70000000000009</v>
       </c>
       <c r="K372" t="n">
-        <v>-11.111111111111</v>
+        <v>0</v>
       </c>
       <c r="L372" t="n">
         <v>14.51000000000001</v>
@@ -19603,7 +19623,7 @@
         <v>21.70000000000009</v>
       </c>
       <c r="K373" t="n">
-        <v>0</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L373" t="n">
         <v>14.51000000000001</v>
@@ -19654,7 +19674,7 @@
         <v>21.90000000000009</v>
       </c>
       <c r="K374" t="n">
-        <v>19.99999999999986</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L374" t="n">
         <v>14.52</v>
@@ -19705,7 +19725,7 @@
         <v>22.00000000000009</v>
       </c>
       <c r="K375" t="n">
-        <v>9.090909090909047</v>
+        <v>-20.00000000000007</v>
       </c>
       <c r="L375" t="n">
         <v>14.53</v>
@@ -19756,7 +19776,7 @@
         <v>22.00000000000009</v>
       </c>
       <c r="K376" t="n">
-        <v>0</v>
+        <v>-20.00000000000007</v>
       </c>
       <c r="L376" t="n">
         <v>14.52</v>
@@ -19807,7 +19827,7 @@
         <v>22.00000000000009</v>
       </c>
       <c r="K377" t="n">
-        <v>0</v>
+        <v>-20.00000000000007</v>
       </c>
       <c r="L377" t="n">
         <v>14.51000000000001</v>
@@ -19858,7 +19878,7 @@
         <v>22.00000000000009</v>
       </c>
       <c r="K378" t="n">
-        <v>0</v>
+        <v>-20.00000000000007</v>
       </c>
       <c r="L378" t="n">
         <v>14.50000000000001</v>
@@ -19909,7 +19929,7 @@
         <v>22.10000000000009</v>
       </c>
       <c r="K379" t="n">
-        <v>-9.090909090909047</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L379" t="n">
         <v>14.48000000000001</v>
@@ -19960,7 +19980,7 @@
         <v>22.10000000000009</v>
       </c>
       <c r="K380" t="n">
-        <v>-9.090909090909047</v>
+        <v>0</v>
       </c>
       <c r="L380" t="n">
         <v>14.46000000000001</v>
@@ -20011,7 +20031,7 @@
         <v>22.10000000000009</v>
       </c>
       <c r="K381" t="n">
-        <v>-9.090909090909047</v>
+        <v>0</v>
       </c>
       <c r="L381" t="n">
         <v>14.46000000000001</v>
@@ -20113,7 +20133,7 @@
         <v>22.10000000000009</v>
       </c>
       <c r="K383" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L383" t="n">
         <v>14.46000000000001</v>
@@ -20164,7 +20184,7 @@
         <v>22.20000000000009</v>
       </c>
       <c r="K384" t="n">
-        <v>-19.99999999999993</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L384" t="n">
         <v>14.43000000000001</v>
@@ -20215,7 +20235,7 @@
         <v>22.20000000000009</v>
       </c>
       <c r="K385" t="n">
-        <v>-11.11111111111109</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L385" t="n">
         <v>14.41000000000001</v>
@@ -20266,7 +20286,7 @@
         <v>22.20000000000009</v>
       </c>
       <c r="K386" t="n">
-        <v>-42.85714285714275</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L386" t="n">
         <v>14.39000000000001</v>
@@ -20317,7 +20337,7 @@
         <v>22.20000000000009</v>
       </c>
       <c r="K387" t="n">
-        <v>-42.85714285714275</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L387" t="n">
         <v>14.37000000000001</v>
@@ -20368,7 +20388,7 @@
         <v>22.20000000000009</v>
       </c>
       <c r="K388" t="n">
-        <v>-42.85714285714275</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L388" t="n">
         <v>14.35000000000001</v>
@@ -20419,7 +20439,7 @@
         <v>22.30000000000009</v>
       </c>
       <c r="K389" t="n">
-        <v>-50</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L389" t="n">
         <v>14.33000000000001</v>
@@ -20470,7 +20490,7 @@
         <v>22.30000000000009</v>
       </c>
       <c r="K390" t="n">
-        <v>-50</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L390" t="n">
         <v>14.31000000000001</v>
@@ -20521,7 +20541,7 @@
         <v>22.40000000000009</v>
       </c>
       <c r="K391" t="n">
-        <v>-14.28571428571418</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L391" t="n">
         <v>14.30000000000001</v>
@@ -20572,7 +20592,7 @@
         <v>22.50000000000009</v>
       </c>
       <c r="K392" t="n">
-        <v>-25</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L392" t="n">
         <v>14.28000000000001</v>
@@ -20623,7 +20643,7 @@
         <v>22.60000000000009</v>
       </c>
       <c r="K393" t="n">
-        <v>-11.111111111111</v>
+        <v>0</v>
       </c>
       <c r="L393" t="n">
         <v>14.27000000000001</v>
@@ -20674,7 +20694,7 @@
         <v>22.7000000000001</v>
       </c>
       <c r="K394" t="n">
-        <v>-49.99999999999956</v>
+        <v>-20</v>
       </c>
       <c r="L394" t="n">
         <v>14.26000000000001</v>
@@ -20725,7 +20745,7 @@
         <v>22.7000000000001</v>
       </c>
       <c r="K395" t="n">
-        <v>-42.85714285714235</v>
+        <v>-20</v>
       </c>
       <c r="L395" t="n">
         <v>14.25000000000001</v>
@@ -20776,7 +20796,7 @@
         <v>22.7000000000001</v>
       </c>
       <c r="K396" t="n">
-        <v>-42.85714285714235</v>
+        <v>-20</v>
       </c>
       <c r="L396" t="n">
         <v>14.24</v>
@@ -20827,7 +20847,7 @@
         <v>22.8000000000001</v>
       </c>
       <c r="K397" t="n">
-        <v>-49.99999999999933</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L397" t="n">
         <v>14.22</v>
@@ -20878,7 +20898,7 @@
         <v>22.9000000000001</v>
       </c>
       <c r="K398" t="n">
-        <v>-33.33333333333294</v>
+        <v>0</v>
       </c>
       <c r="L398" t="n">
         <v>14.21</v>
@@ -20929,7 +20949,7 @@
         <v>22.9000000000001</v>
       </c>
       <c r="K399" t="n">
-        <v>-24.99999999999978</v>
+        <v>0</v>
       </c>
       <c r="L399" t="n">
         <v>14.21</v>
@@ -20980,7 +21000,7 @@
         <v>22.9000000000001</v>
       </c>
       <c r="K400" t="n">
-        <v>-24.99999999999978</v>
+        <v>-20</v>
       </c>
       <c r="L400" t="n">
         <v>14.21</v>
@@ -21031,7 +21051,7 @@
         <v>23.0000000000001</v>
       </c>
       <c r="K401" t="n">
-        <v>-11.11111111111091</v>
+        <v>20</v>
       </c>
       <c r="L401" t="n">
         <v>14.21</v>
@@ -21082,7 +21102,7 @@
         <v>23.1000000000001</v>
       </c>
       <c r="K402" t="n">
-        <v>-19.99999999999982</v>
+        <v>-20</v>
       </c>
       <c r="L402" t="n">
         <v>14.21</v>
@@ -21133,7 +21153,7 @@
         <v>23.1000000000001</v>
       </c>
       <c r="K403" t="n">
-        <v>-19.99999999999982</v>
+        <v>0</v>
       </c>
       <c r="L403" t="n">
         <v>14.2</v>
@@ -21184,7 +21204,7 @@
         <v>23.1000000000001</v>
       </c>
       <c r="K404" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L404" t="n">
         <v>14.2</v>
@@ -21235,7 +21255,7 @@
         <v>23.2000000000001</v>
       </c>
       <c r="K405" t="n">
-        <v>-19.99999999999982</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L405" t="n">
         <v>14.19</v>
@@ -21286,7 +21306,7 @@
         <v>23.2000000000001</v>
       </c>
       <c r="K406" t="n">
-        <v>-19.99999999999982</v>
+        <v>0</v>
       </c>
       <c r="L406" t="n">
         <v>14.18</v>
@@ -21337,7 +21357,7 @@
         <v>23.2000000000001</v>
       </c>
       <c r="K407" t="n">
-        <v>-19.99999999999982</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L407" t="n">
         <v>14.18</v>
@@ -21388,7 +21408,7 @@
         <v>23.3000000000001</v>
       </c>
       <c r="K408" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L408" t="n">
         <v>14.18</v>
@@ -21490,7 +21510,7 @@
         <v>23.40000000000011</v>
       </c>
       <c r="K410" t="n">
-        <v>-9.090909090908928</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L410" t="n">
         <v>14.17</v>
@@ -21541,7 +21561,7 @@
         <v>23.50000000000011</v>
       </c>
       <c r="K411" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L411" t="n">
         <v>14.16</v>
@@ -21592,7 +21612,7 @@
         <v>23.60000000000011</v>
       </c>
       <c r="K412" t="n">
-        <v>-9.090909090908928</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L412" t="n">
         <v>14.15</v>
@@ -21643,7 +21663,7 @@
         <v>23.60000000000011</v>
       </c>
       <c r="K413" t="n">
-        <v>-19.99999999999982</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L413" t="n">
         <v>14.14</v>
@@ -21694,7 +21714,7 @@
         <v>23.60000000000011</v>
       </c>
       <c r="K414" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L414" t="n">
         <v>14.13</v>
@@ -21745,7 +21765,7 @@
         <v>23.70000000000011</v>
       </c>
       <c r="K415" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L415" t="n">
         <v>14.14</v>
@@ -21796,7 +21816,7 @@
         <v>23.70000000000011</v>
       </c>
       <c r="K416" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L416" t="n">
         <v>14.15</v>
@@ -21847,7 +21867,7 @@
         <v>23.70000000000011</v>
       </c>
       <c r="K417" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L417" t="n">
         <v>14.16</v>
@@ -21949,7 +21969,7 @@
         <v>23.80000000000011</v>
       </c>
       <c r="K419" t="n">
-        <v>11.11111111111111</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L419" t="n">
         <v>14.17</v>
@@ -22051,7 +22071,7 @@
         <v>23.90000000000011</v>
       </c>
       <c r="K421" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L421" t="n">
         <v>14.18</v>
@@ -22102,7 +22122,7 @@
         <v>23.90000000000011</v>
       </c>
       <c r="K422" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L422" t="n">
         <v>14.19</v>
@@ -22153,7 +22173,7 @@
         <v>24.00000000000011</v>
       </c>
       <c r="K423" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L423" t="n">
         <v>14.19</v>
@@ -22204,7 +22224,7 @@
         <v>24.20000000000012</v>
       </c>
       <c r="K424" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L424" t="n">
         <v>14.21</v>
@@ -22255,7 +22275,7 @@
         <v>24.20000000000012</v>
       </c>
       <c r="K425" t="n">
-        <v>19.99999999999982</v>
+        <v>20</v>
       </c>
       <c r="L425" t="n">
         <v>14.22</v>
@@ -22306,7 +22326,7 @@
         <v>24.20000000000012</v>
       </c>
       <c r="K426" t="n">
-        <v>19.99999999999982</v>
+        <v>20</v>
       </c>
       <c r="L426" t="n">
         <v>14.23</v>
@@ -22357,7 +22377,7 @@
         <v>24.30000000000012</v>
       </c>
       <c r="K427" t="n">
-        <v>27.27272727272695</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L427" t="n">
         <v>14.25000000000001</v>
@@ -22408,7 +22428,7 @@
         <v>24.30000000000012</v>
       </c>
       <c r="K428" t="n">
-        <v>19.99999999999982</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L428" t="n">
         <v>14.27000000000001</v>
@@ -22459,7 +22479,7 @@
         <v>24.30000000000012</v>
       </c>
       <c r="K429" t="n">
-        <v>19.99999999999982</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L429" t="n">
         <v>14.28000000000001</v>
@@ -22510,7 +22530,7 @@
         <v>24.30000000000012</v>
       </c>
       <c r="K430" t="n">
-        <v>33.33333333333294</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L430" t="n">
         <v>14.30000000000001</v>
@@ -22612,7 +22632,7 @@
         <v>24.70000000000012</v>
       </c>
       <c r="K432" t="n">
-        <v>27.27272727272695</v>
+        <v>42.85714285714235</v>
       </c>
       <c r="L432" t="n">
         <v>14.32000000000001</v>
@@ -22663,7 +22683,7 @@
         <v>24.80000000000013</v>
       </c>
       <c r="K433" t="n">
-        <v>16.66666666666652</v>
+        <v>0</v>
       </c>
       <c r="L433" t="n">
         <v>14.34000000000001</v>
@@ -22714,7 +22734,7 @@
         <v>24.80000000000013</v>
       </c>
       <c r="K434" t="n">
-        <v>16.66666666666652</v>
+        <v>0</v>
       </c>
       <c r="L434" t="n">
         <v>14.34000000000001</v>
@@ -22765,7 +22785,7 @@
         <v>24.90000000000013</v>
       </c>
       <c r="K435" t="n">
-        <v>16.66666666666652</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L435" t="n">
         <v>14.35000000000001</v>
@@ -22816,7 +22836,7 @@
         <v>25.00000000000013</v>
       </c>
       <c r="K436" t="n">
-        <v>7.692307692307693</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L436" t="n">
         <v>14.35000000000001</v>
@@ -22867,7 +22887,7 @@
         <v>25.10000000000013</v>
       </c>
       <c r="K437" t="n">
-        <v>14.28571428571416</v>
+        <v>0</v>
       </c>
       <c r="L437" t="n">
         <v>14.35000000000001</v>
@@ -22918,7 +22938,7 @@
         <v>25.10000000000013</v>
       </c>
       <c r="K438" t="n">
-        <v>14.28571428571416</v>
+        <v>0</v>
       </c>
       <c r="L438" t="n">
         <v>14.35000000000001</v>
@@ -22969,7 +22989,7 @@
         <v>25.20000000000013</v>
       </c>
       <c r="K439" t="n">
-        <v>0</v>
+        <v>-11.11111111111091</v>
       </c>
       <c r="L439" t="n">
         <v>14.34000000000001</v>
@@ -23020,7 +23040,7 @@
         <v>25.20000000000013</v>
       </c>
       <c r="K440" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L440" t="n">
         <v>14.33000000000001</v>
@@ -23071,7 +23091,7 @@
         <v>25.20000000000013</v>
       </c>
       <c r="K441" t="n">
-        <v>7.692307692307693</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L441" t="n">
         <v>14.34000000000001</v>
@@ -23122,7 +23142,7 @@
         <v>25.30000000000013</v>
       </c>
       <c r="K442" t="n">
-        <v>14.28571428571416</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L442" t="n">
         <v>14.34000000000001</v>
@@ -23173,7 +23193,7 @@
         <v>25.30000000000013</v>
       </c>
       <c r="K443" t="n">
-        <v>23.0769230769228</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L443" t="n">
         <v>14.35000000000001</v>
@@ -23224,7 +23244,7 @@
         <v>25.40000000000013</v>
       </c>
       <c r="K444" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L444" t="n">
         <v>14.35000000000001</v>
@@ -23326,7 +23346,7 @@
         <v>25.50000000000014</v>
       </c>
       <c r="K446" t="n">
-        <v>7.692307692307556</v>
+        <v>0</v>
       </c>
       <c r="L446" t="n">
         <v>14.35000000000001</v>
@@ -23428,7 +23448,7 @@
         <v>25.60000000000014</v>
       </c>
       <c r="K448" t="n">
-        <v>-7.692307692307556</v>
+        <v>0</v>
       </c>
       <c r="L448" t="n">
         <v>14.34000000000001</v>
@@ -23479,7 +23499,7 @@
         <v>25.60000000000014</v>
       </c>
       <c r="K449" t="n">
-        <v>-7.692307692307556</v>
+        <v>0</v>
       </c>
       <c r="L449" t="n">
         <v>14.34000000000001</v>
@@ -23530,7 +23550,7 @@
         <v>25.70000000000014</v>
       </c>
       <c r="K450" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L450" t="n">
         <v>14.35000000000001</v>
@@ -23581,7 +23601,7 @@
         <v>25.80000000000014</v>
       </c>
       <c r="K451" t="n">
-        <v>23.0769230769228</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L451" t="n">
         <v>14.37000000000001</v>
@@ -23632,7 +23652,7 @@
         <v>25.80000000000014</v>
       </c>
       <c r="K452" t="n">
-        <v>9.090909090908928</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L452" t="n">
         <v>14.38000000000001</v>
@@ -23683,7 +23703,7 @@
         <v>25.90000000000014</v>
       </c>
       <c r="K453" t="n">
-        <v>27.27272727272679</v>
+        <v>59.99999999999893</v>
       </c>
       <c r="L453" t="n">
         <v>14.40000000000001</v>
@@ -23734,7 +23754,7 @@
         <v>26.00000000000014</v>
       </c>
       <c r="K454" t="n">
-        <v>16.66666666666637</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L454" t="n">
         <v>14.42000000000001</v>
@@ -23785,7 +23805,7 @@
         <v>26.00000000000014</v>
       </c>
       <c r="K455" t="n">
-        <v>9.090909090908928</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L455" t="n">
         <v>14.44000000000001</v>
@@ -23836,7 +23856,7 @@
         <v>26.10000000000014</v>
       </c>
       <c r="K456" t="n">
-        <v>9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L456" t="n">
         <v>14.44000000000001</v>
@@ -23887,7 +23907,7 @@
         <v>26.10000000000014</v>
       </c>
       <c r="K457" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L457" t="n">
         <v>14.44000000000001</v>
@@ -23938,7 +23958,7 @@
         <v>26.20000000000014</v>
       </c>
       <c r="K458" t="n">
-        <v>9.090909090908928</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L458" t="n">
         <v>14.46000000000001</v>
@@ -23989,7 +24009,7 @@
         <v>26.30000000000015</v>
       </c>
       <c r="K459" t="n">
-        <v>27.27272727272679</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L459" t="n">
         <v>14.49000000000001</v>
@@ -24040,7 +24060,7 @@
         <v>26.30000000000015</v>
       </c>
       <c r="K460" t="n">
-        <v>27.27272727272679</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L460" t="n">
         <v>14.51000000000001</v>
@@ -24091,7 +24111,7 @@
         <v>26.30000000000015</v>
       </c>
       <c r="K461" t="n">
-        <v>27.27272727272679</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L461" t="n">
         <v>14.52</v>
@@ -24142,7 +24162,7 @@
         <v>26.30000000000015</v>
       </c>
       <c r="K462" t="n">
-        <v>19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L462" t="n">
         <v>14.53</v>
@@ -24193,7 +24213,7 @@
         <v>26.40000000000015</v>
       </c>
       <c r="K463" t="n">
-        <v>9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L463" t="n">
         <v>14.52</v>
@@ -24244,7 +24264,7 @@
         <v>26.40000000000015</v>
       </c>
       <c r="K464" t="n">
-        <v>19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L464" t="n">
         <v>14.52</v>
@@ -24295,7 +24315,7 @@
         <v>26.40000000000015</v>
       </c>
       <c r="K465" t="n">
-        <v>19.99999999999964</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L465" t="n">
         <v>14.52</v>
@@ -24346,7 +24366,7 @@
         <v>26.50000000000015</v>
       </c>
       <c r="K466" t="n">
-        <v>19.99999999999964</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L466" t="n">
         <v>14.54</v>
@@ -24397,7 +24417,7 @@
         <v>26.50000000000015</v>
       </c>
       <c r="K467" t="n">
-        <v>19.99999999999964</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L467" t="n">
         <v>14.56</v>
@@ -24448,7 +24468,7 @@
         <v>26.50000000000015</v>
       </c>
       <c r="K468" t="n">
-        <v>33.33333333333275</v>
+        <v>0</v>
       </c>
       <c r="L468" t="n">
         <v>14.57</v>
@@ -24499,7 +24519,7 @@
         <v>26.60000000000015</v>
       </c>
       <c r="K469" t="n">
-        <v>19.99999999999964</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L469" t="n">
         <v>14.56</v>
@@ -24550,7 +24570,7 @@
         <v>26.60000000000015</v>
       </c>
       <c r="K470" t="n">
-        <v>11.11111111111091</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L470" t="n">
         <v>14.55</v>
@@ -24601,7 +24621,7 @@
         <v>26.60000000000015</v>
       </c>
       <c r="K471" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L471" t="n">
         <v>14.54</v>
@@ -24703,7 +24723,7 @@
         <v>26.60000000000015</v>
       </c>
       <c r="K473" t="n">
-        <v>-14.28571428571403</v>
+        <v>0</v>
       </c>
       <c r="L473" t="n">
         <v>14.53</v>
@@ -24805,7 +24825,7 @@
         <v>26.60000000000015</v>
       </c>
       <c r="K475" t="n">
-        <v>0</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L475" t="n">
         <v>14.53</v>
@@ -24856,7 +24876,7 @@
         <v>26.70000000000015</v>
       </c>
       <c r="K476" t="n">
-        <v>0</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L476" t="n">
         <v>14.51000000000001</v>
@@ -24907,7 +24927,7 @@
         <v>26.70000000000015</v>
       </c>
       <c r="K477" t="n">
-        <v>0</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L477" t="n">
         <v>14.49000000000001</v>
@@ -25111,7 +25131,7 @@
         <v>27.00000000000016</v>
       </c>
       <c r="K481" t="n">
-        <v>-42.85714285714209</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L481" t="n">
         <v>14.44000000000001</v>
@@ -25162,7 +25182,7 @@
         <v>27.00000000000016</v>
       </c>
       <c r="K482" t="n">
-        <v>-42.85714285714209</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L482" t="n">
         <v>14.42000000000001</v>
@@ -25213,7 +25233,7 @@
         <v>27.10000000000016</v>
       </c>
       <c r="K483" t="n">
-        <v>-42.85714285714235</v>
+        <v>-59.99999999999929</v>
       </c>
       <c r="L483" t="n">
         <v>14.39000000000001</v>
@@ -25264,7 +25284,7 @@
         <v>27.20000000000016</v>
       </c>
       <c r="K484" t="n">
-        <v>-49.99999999999933</v>
+        <v>-66.66666666666578</v>
       </c>
       <c r="L484" t="n">
         <v>14.35000000000001</v>
@@ -25315,7 +25335,7 @@
         <v>27.30000000000016</v>
       </c>
       <c r="K485" t="n">
-        <v>-33.33333333333294</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L485" t="n">
         <v>14.32000000000001</v>
@@ -25366,7 +25386,7 @@
         <v>27.30000000000016</v>
       </c>
       <c r="K486" t="n">
-        <v>-49.99999999999933</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L486" t="n">
         <v>14.30000000000001</v>
@@ -25417,7 +25437,7 @@
         <v>27.30000000000016</v>
       </c>
       <c r="K487" t="n">
-        <v>-49.99999999999933</v>
+        <v>-59.99999999999929</v>
       </c>
       <c r="L487" t="n">
         <v>14.28</v>
@@ -25468,7 +25488,7 @@
         <v>27.30000000000016</v>
       </c>
       <c r="K488" t="n">
-        <v>-49.99999999999933</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L488" t="n">
         <v>14.25</v>
@@ -25519,7 +25539,7 @@
         <v>27.30000000000016</v>
       </c>
       <c r="K489" t="n">
-        <v>-42.85714285714235</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L489" t="n">
         <v>14.23</v>
@@ -25570,7 +25590,7 @@
         <v>27.30000000000016</v>
       </c>
       <c r="K490" t="n">
-        <v>-42.85714285714235</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L490" t="n">
         <v>14.21</v>
@@ -25621,7 +25641,7 @@
         <v>27.40000000000016</v>
       </c>
       <c r="K491" t="n">
-        <v>-24.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L491" t="n">
         <v>14.21</v>
@@ -25672,7 +25692,7 @@
         <v>27.40000000000016</v>
       </c>
       <c r="K492" t="n">
-        <v>-24.99999999999956</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L492" t="n">
         <v>14.21</v>
@@ -25723,7 +25743,7 @@
         <v>27.40000000000016</v>
       </c>
       <c r="K493" t="n">
-        <v>-24.99999999999956</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L493" t="n">
         <v>14.22</v>
@@ -25774,7 +25794,7 @@
         <v>27.50000000000016</v>
       </c>
       <c r="K494" t="n">
-        <v>-11.11111111111091</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L494" t="n">
         <v>14.25</v>
@@ -25825,7 +25845,7 @@
         <v>27.60000000000016</v>
       </c>
       <c r="K495" t="n">
-        <v>-19.99999999999964</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L495" t="n">
         <v>14.26000000000001</v>
@@ -25876,7 +25896,7 @@
         <v>27.60000000000016</v>
       </c>
       <c r="K496" t="n">
-        <v>-11.11111111111091</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L496" t="n">
         <v>14.27000000000001</v>
@@ -25927,7 +25947,7 @@
         <v>27.60000000000016</v>
       </c>
       <c r="K497" t="n">
-        <v>-11.11111111111091</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L497" t="n">
         <v>14.28000000000001</v>
@@ -25978,7 +25998,7 @@
         <v>27.60000000000016</v>
       </c>
       <c r="K498" t="n">
-        <v>-24.99999999999956</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L498" t="n">
         <v>14.29000000000001</v>
@@ -26029,7 +26049,7 @@
         <v>27.60000000000016</v>
       </c>
       <c r="K499" t="n">
-        <v>-14.28571428571403</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L499" t="n">
         <v>14.30000000000001</v>
@@ -26080,7 +26100,7 @@
         <v>27.70000000000017</v>
       </c>
       <c r="K500" t="n">
-        <v>-24.99999999999978</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L500" t="n">
         <v>14.30000000000001</v>
@@ -26131,7 +26151,7 @@
         <v>27.90000000000017</v>
       </c>
       <c r="K501" t="n">
-        <v>11.11111111111091</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L501" t="n">
         <v>14.31000000000001</v>
@@ -26182,7 +26202,7 @@
         <v>27.90000000000017</v>
       </c>
       <c r="K502" t="n">
-        <v>11.11111111111091</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L502" t="n">
         <v>14.32000000000001</v>
@@ -26233,7 +26253,7 @@
         <v>27.90000000000017</v>
       </c>
       <c r="K503" t="n">
-        <v>24.99999999999978</v>
+        <v>0</v>
       </c>
       <c r="L503" t="n">
         <v>14.33000000000001</v>
@@ -26284,7 +26304,7 @@
         <v>28.00000000000017</v>
       </c>
       <c r="K504" t="n">
-        <v>24.99999999999978</v>
+        <v>0</v>
       </c>
       <c r="L504" t="n">
         <v>14.32000000000001</v>
@@ -26335,7 +26355,7 @@
         <v>28.00000000000017</v>
       </c>
       <c r="K505" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L505" t="n">
         <v>14.32000000000001</v>
@@ -26386,7 +26406,7 @@
         <v>28.00000000000017</v>
       </c>
       <c r="K506" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L506" t="n">
         <v>14.32000000000001</v>
@@ -26437,7 +26457,7 @@
         <v>28.00000000000017</v>
       </c>
       <c r="K507" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L507" t="n">
         <v>14.32000000000001</v>
@@ -26488,7 +26508,7 @@
         <v>28.00000000000017</v>
       </c>
       <c r="K508" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L508" t="n">
         <v>14.32000000000001</v>
@@ -26539,7 +26559,7 @@
         <v>28.00000000000017</v>
       </c>
       <c r="K509" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L509" t="n">
         <v>14.32000000000001</v>
@@ -26590,7 +26610,7 @@
         <v>28.10000000000017</v>
       </c>
       <c r="K510" t="n">
-        <v>24.99999999999978</v>
+        <v>0</v>
       </c>
       <c r="L510" t="n">
         <v>14.34000000000001</v>
@@ -26641,7 +26661,7 @@
         <v>28.20000000000017</v>
       </c>
       <c r="K511" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L511" t="n">
         <v>14.33000000000002</v>
@@ -26692,7 +26712,7 @@
         <v>28.20000000000017</v>
       </c>
       <c r="K512" t="n">
-        <v>0</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L512" t="n">
         <v>14.32000000000002</v>
@@ -26794,7 +26814,7 @@
         <v>28.30000000000017</v>
       </c>
       <c r="K514" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L514" t="n">
         <v>14.32000000000002</v>
@@ -26845,7 +26865,7 @@
         <v>28.40000000000018</v>
       </c>
       <c r="K515" t="n">
-        <v>24.99999999999956</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L515" t="n">
         <v>14.34000000000001</v>
@@ -26896,7 +26916,7 @@
         <v>28.50000000000018</v>
       </c>
       <c r="K516" t="n">
-        <v>33.33333333333275</v>
+        <v>59.99999999999893</v>
       </c>
       <c r="L516" t="n">
         <v>14.37000000000001</v>
@@ -26947,7 +26967,7 @@
         <v>28.60000000000018</v>
       </c>
       <c r="K517" t="n">
-        <v>19.99999999999964</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L517" t="n">
         <v>14.39000000000001</v>
@@ -26998,7 +27018,7 @@
         <v>28.70000000000018</v>
       </c>
       <c r="K518" t="n">
-        <v>27.27272727272679</v>
+        <v>42.85714285714209</v>
       </c>
       <c r="L518" t="n">
         <v>14.42000000000001</v>
@@ -27049,7 +27069,7 @@
         <v>28.70000000000018</v>
       </c>
       <c r="K519" t="n">
-        <v>27.27272727272679</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L519" t="n">
         <v>14.45000000000001</v>
@@ -27100,7 +27120,7 @@
         <v>28.90000000000018</v>
       </c>
       <c r="K520" t="n">
-        <v>49.9999999999994</v>
+        <v>71.42857142857041</v>
       </c>
       <c r="L520" t="n">
         <v>14.49000000000001</v>
@@ -27151,7 +27171,7 @@
         <v>28.90000000000018</v>
       </c>
       <c r="K521" t="n">
-        <v>39.99999999999947</v>
+        <v>71.42857142857041</v>
       </c>
       <c r="L521" t="n">
         <v>14.54000000000001</v>
@@ -27202,7 +27222,7 @@
         <v>28.90000000000018</v>
       </c>
       <c r="K522" t="n">
-        <v>39.99999999999947</v>
+        <v>71.42857142857041</v>
       </c>
       <c r="L522" t="n">
         <v>14.59000000000001</v>
@@ -27253,7 +27273,7 @@
         <v>29.00000000000018</v>
       </c>
       <c r="K523" t="n">
-        <v>45.45454545454481</v>
+        <v>71.42857142857041</v>
       </c>
       <c r="L523" t="n">
         <v>14.65000000000001</v>
@@ -27304,7 +27324,7 @@
         <v>29.00000000000018</v>
       </c>
       <c r="K524" t="n">
-        <v>59.99999999999911</v>
+        <v>66.66666666666578</v>
       </c>
       <c r="L524" t="n">
         <v>14.70000000000001</v>
@@ -27355,7 +27375,7 @@
         <v>29.00000000000018</v>
       </c>
       <c r="K525" t="n">
-        <v>59.99999999999911</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L525" t="n">
         <v>14.74000000000001</v>
@@ -27406,7 +27426,7 @@
         <v>29.00000000000018</v>
       </c>
       <c r="K526" t="n">
-        <v>59.99999999999911</v>
+        <v>99.99999999999866</v>
       </c>
       <c r="L526" t="n">
         <v>14.77000000000001</v>
@@ -27457,7 +27477,7 @@
         <v>29.20000000000019</v>
       </c>
       <c r="K527" t="n">
-        <v>33.33333333333275</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L527" t="n">
         <v>14.79000000000001</v>
@@ -27508,7 +27528,7 @@
         <v>29.30000000000019</v>
       </c>
       <c r="K528" t="n">
-        <v>38.46153846153791</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L528" t="n">
         <v>14.81000000000001</v>
@@ -27559,7 +27579,7 @@
         <v>29.30000000000019</v>
       </c>
       <c r="K529" t="n">
-        <v>38.46153846153791</v>
+        <v>0</v>
       </c>
       <c r="L529" t="n">
         <v>14.83000000000001</v>
@@ -27610,7 +27630,7 @@
         <v>29.30000000000019</v>
       </c>
       <c r="K530" t="n">
-        <v>33.33333333333289</v>
+        <v>0</v>
       </c>
       <c r="L530" t="n">
         <v>14.83000000000001</v>
@@ -27661,7 +27681,7 @@
         <v>29.40000000000019</v>
       </c>
       <c r="K531" t="n">
-        <v>33.33333333333275</v>
+        <v>-20</v>
       </c>
       <c r="L531" t="n">
         <v>14.82000000000001</v>
@@ -27712,7 +27732,7 @@
         <v>29.50000000000019</v>
       </c>
       <c r="K532" t="n">
-        <v>38.46153846153791</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L532" t="n">
         <v>14.82000000000001</v>
@@ -27763,7 +27783,7 @@
         <v>29.50000000000019</v>
       </c>
       <c r="K533" t="n">
-        <v>38.46153846153791</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L533" t="n">
         <v>14.81000000000001</v>
@@ -27814,7 +27834,7 @@
         <v>29.50000000000019</v>
       </c>
       <c r="K534" t="n">
-        <v>33.33333333333289</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L534" t="n">
         <v>14.80000000000001</v>
@@ -27865,7 +27885,7 @@
         <v>29.60000000000019</v>
       </c>
       <c r="K535" t="n">
-        <v>16.66666666666637</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L535" t="n">
         <v>14.78000000000001</v>
@@ -27916,7 +27936,7 @@
         <v>29.70000000000019</v>
       </c>
       <c r="K536" t="n">
-        <v>16.66666666666652</v>
+        <v>20</v>
       </c>
       <c r="L536" t="n">
         <v>14.77000000000001</v>
@@ -27967,7 +27987,7 @@
         <v>29.8000000000002</v>
       </c>
       <c r="K537" t="n">
-        <v>16.66666666666637</v>
+        <v>-20</v>
       </c>
       <c r="L537" t="n">
         <v>14.77000000000001</v>
@@ -28018,7 +28038,7 @@
         <v>29.8000000000002</v>
       </c>
       <c r="K538" t="n">
-        <v>9.090909090908928</v>
+        <v>-20</v>
       </c>
       <c r="L538" t="n">
         <v>14.76000000000001</v>
@@ -28069,7 +28089,7 @@
         <v>29.8000000000002</v>
       </c>
       <c r="K539" t="n">
-        <v>9.090909090908928</v>
+        <v>-20</v>
       </c>
       <c r="L539" t="n">
         <v>14.75000000000001</v>
@@ -28120,7 +28140,7 @@
         <v>29.9000000000002</v>
       </c>
       <c r="K540" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L540" t="n">
         <v>14.75000000000001</v>
@@ -28273,7 +28293,7 @@
         <v>30.0000000000002</v>
       </c>
       <c r="K543" t="n">
-        <v>-19.99999999999982</v>
+        <v>-20</v>
       </c>
       <c r="L543" t="n">
         <v>14.75000000000001</v>
@@ -28324,7 +28344,7 @@
         <v>30.1000000000002</v>
       </c>
       <c r="K544" t="n">
-        <v>-9.090909090908928</v>
+        <v>20</v>
       </c>
       <c r="L544" t="n">
         <v>14.75000000000001</v>
@@ -28375,7 +28395,7 @@
         <v>30.1000000000002</v>
       </c>
       <c r="K545" t="n">
-        <v>-9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L545" t="n">
         <v>14.76000000000001</v>
@@ -28426,7 +28446,7 @@
         <v>30.1000000000002</v>
       </c>
       <c r="K546" t="n">
-        <v>-9.090909090908928</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L546" t="n">
         <v>14.76000000000001</v>
@@ -28477,7 +28497,7 @@
         <v>30.1000000000002</v>
       </c>
       <c r="K547" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L547" t="n">
         <v>14.77000000000001</v>
@@ -28528,7 +28548,7 @@
         <v>30.2000000000002</v>
       </c>
       <c r="K548" t="n">
-        <v>11.11111111111091</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L548" t="n">
         <v>14.79000000000001</v>
@@ -28579,7 +28599,7 @@
         <v>30.3000000000002</v>
       </c>
       <c r="K549" t="n">
-        <v>19.99999999999964</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L549" t="n">
         <v>14.82000000000001</v>
@@ -28630,7 +28650,7 @@
         <v>30.6000000000002</v>
       </c>
       <c r="K550" t="n">
-        <v>38.46153846153802</v>
+        <v>71.42857142857078</v>
       </c>
       <c r="L550" t="n">
         <v>14.87000000000001</v>
@@ -28681,7 +28701,7 @@
         <v>30.6000000000002</v>
       </c>
       <c r="K551" t="n">
-        <v>49.99999999999956</v>
+        <v>71.42857142857078</v>
       </c>
       <c r="L551" t="n">
         <v>14.92000000000001</v>
@@ -28732,7 +28752,7 @@
         <v>30.7000000000002</v>
       </c>
       <c r="K552" t="n">
-        <v>49.99999999999956</v>
+        <v>99.99999999999974</v>
       </c>
       <c r="L552" t="n">
         <v>14.98000000000001</v>
@@ -28783,7 +28803,7 @@
         <v>30.8000000000002</v>
       </c>
       <c r="K553" t="n">
-        <v>38.46153846153813</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L553" t="n">
         <v>15.04000000000002</v>
@@ -28834,7 +28854,7 @@
         <v>30.8000000000002</v>
       </c>
       <c r="K554" t="n">
-        <v>38.46153846153813</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L554" t="n">
         <v>15.09000000000001</v>
@@ -28885,7 +28905,7 @@
         <v>30.8000000000002</v>
       </c>
       <c r="K555" t="n">
-        <v>49.99999999999971</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L555" t="n">
         <v>15.14000000000001</v>
@@ -28936,7 +28956,7 @@
         <v>31.0000000000002</v>
       </c>
       <c r="K556" t="n">
-        <v>53.84615384615346</v>
+        <v>77.77777777777752</v>
       </c>
       <c r="L556" t="n">
         <v>15.21000000000001</v>
@@ -28987,7 +29007,7 @@
         <v>31.1000000000002</v>
       </c>
       <c r="K557" t="n">
-        <v>53.84615384615375</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L557" t="n">
         <v>15.27000000000001</v>
@@ -29038,7 +29058,7 @@
         <v>31.3000000000002</v>
       </c>
       <c r="K558" t="n">
-        <v>59.99999999999989</v>
+        <v>60.00000000000018</v>
       </c>
       <c r="L558" t="n">
         <v>15.34000000000001</v>
@@ -29089,7 +29109,7 @@
         <v>31.3000000000002</v>
       </c>
       <c r="K559" t="n">
-        <v>59.99999999999989</v>
+        <v>42.85714285714297</v>
       </c>
       <c r="L559" t="n">
         <v>15.40000000000001</v>
@@ -29140,7 +29160,7 @@
         <v>31.5000000000002</v>
       </c>
       <c r="K560" t="n">
-        <v>37.49999999999994</v>
+        <v>11.11111111111113</v>
       </c>
       <c r="L560" t="n">
         <v>15.41000000000001</v>
@@ -29191,7 +29211,7 @@
         <v>31.5000000000002</v>
       </c>
       <c r="K561" t="n">
-        <v>37.49999999999994</v>
+        <v>0</v>
       </c>
       <c r="L561" t="n">
         <v>15.42000000000001</v>
@@ -29242,7 +29262,7 @@
         <v>31.7000000000002</v>
       </c>
       <c r="K562" t="n">
-        <v>44.44444444444437</v>
+        <v>33.3333333333334</v>
       </c>
       <c r="L562" t="n">
         <v>15.44000000000001</v>
@@ -29293,7 +29313,7 @@
         <v>31.8000000000002</v>
       </c>
       <c r="K563" t="n">
-        <v>55.55555555555565</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="L563" t="n">
         <v>15.48000000000001</v>
@@ -29344,7 +29364,7 @@
         <v>31.8000000000002</v>
       </c>
       <c r="K564" t="n">
-        <v>52.94117647058828</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="L564" t="n">
         <v>15.52</v>
@@ -29395,7 +29415,7 @@
         <v>32.3000000000002</v>
       </c>
       <c r="K565" t="n">
-        <v>63.63636363636369</v>
+        <v>53.84615384615405</v>
       </c>
       <c r="L565" t="n">
         <v>15.61</v>
@@ -29446,7 +29466,7 @@
         <v>32.70000000000019</v>
       </c>
       <c r="K566" t="n">
-        <v>38.46153846153855</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L566" t="n">
         <v>15.64</v>
@@ -29497,7 +29517,7 @@
         <v>32.9000000000002</v>
       </c>
       <c r="K567" t="n">
-        <v>28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L567" t="n">
         <v>15.66</v>
@@ -29548,7 +29568,7 @@
         <v>33.1000000000002</v>
       </c>
       <c r="K568" t="n">
-        <v>31.03448275862072</v>
+        <v>11.11111111111117</v>
       </c>
       <c r="L568" t="n">
         <v>15.68</v>
@@ -29599,7 +29619,7 @@
         <v>33.2000000000002</v>
       </c>
       <c r="K569" t="n">
-        <v>31.03448275862072</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L569" t="n">
         <v>15.71</v>
@@ -29650,7 +29670,7 @@
         <v>33.5000000000002</v>
       </c>
       <c r="K570" t="n">
-        <v>10.34482758620688</v>
+        <v>9.999999999999964</v>
       </c>
       <c r="L570" t="n">
         <v>15.73</v>
@@ -29701,7 +29721,7 @@
         <v>33.5000000000002</v>
       </c>
       <c r="K571" t="n">
-        <v>10.34482758620688</v>
+        <v>0</v>
       </c>
       <c r="L571" t="n">
         <v>15.75</v>
@@ -29752,7 +29772,7 @@
         <v>33.6000000000002</v>
       </c>
       <c r="K572" t="n">
-        <v>10.34482758620686</v>
+        <v>0</v>
       </c>
       <c r="L572" t="n">
         <v>15.76</v>
@@ -29803,7 +29823,7 @@
         <v>33.8000000000002</v>
       </c>
       <c r="K573" t="n">
-        <v>6.666666666666658</v>
+        <v>-9.999999999999964</v>
       </c>
       <c r="L573" t="n">
         <v>15.74</v>
@@ -29854,7 +29874,7 @@
         <v>33.9000000000002</v>
       </c>
       <c r="K574" t="n">
-        <v>9.677419354838692</v>
+        <v>-37.49999999999994</v>
       </c>
       <c r="L574" t="n">
         <v>15.73</v>
@@ -29905,7 +29925,7 @@
         <v>33.9000000000002</v>
       </c>
       <c r="K575" t="n">
-        <v>9.677419354838692</v>
+        <v>-16.66666666666671</v>
       </c>
       <c r="L575" t="n">
         <v>15.67000000000001</v>
@@ -29956,7 +29976,7 @@
         <v>34.10000000000019</v>
       </c>
       <c r="K576" t="n">
-        <v>-3.225806451612901</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L576" t="n">
         <v>15.63</v>
@@ -30007,7 +30027,7 @@
         <v>34.20000000000019</v>
       </c>
       <c r="K577" t="n">
-        <v>3.225806451612898</v>
+        <v>-27.27272727272748</v>
       </c>
       <c r="L577" t="n">
         <v>15.62</v>
@@ -30058,7 +30078,7 @@
         <v>34.3000000000002</v>
       </c>
       <c r="K578" t="n">
-        <v>-6.666666666666651</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L578" t="n">
         <v>15.58</v>
@@ -30109,7 +30129,7 @@
         <v>34.4000000000002</v>
       </c>
       <c r="K579" t="n">
-        <v>-3.225806451612894</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L579" t="n">
         <v>15.54</v>
@@ -30160,7 +30180,7 @@
         <v>34.5000000000002</v>
       </c>
       <c r="K580" t="n">
-        <v>0</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L580" t="n">
         <v>15.52</v>
@@ -30211,7 +30231,7 @@
         <v>34.7000000000002</v>
       </c>
       <c r="K581" t="n">
-        <v>-6.250000000000028</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="L581" t="n">
         <v>15.48</v>
@@ -30262,7 +30282,7 @@
         <v>34.9000000000002</v>
       </c>
       <c r="K582" t="n">
-        <v>-6.249999999999965</v>
+        <v>-9.090909090908989</v>
       </c>
       <c r="L582" t="n">
         <v>15.45000000000001</v>
@@ -30313,7 +30333,7 @@
         <v>35.00000000000021</v>
       </c>
       <c r="K583" t="n">
-        <v>-6.249999999999958</v>
+        <v>-9.090909090908989</v>
       </c>
       <c r="L583" t="n">
         <v>15.45000000000001</v>
@@ -30364,7 +30384,7 @@
         <v>35.10000000000021</v>
       </c>
       <c r="K584" t="n">
-        <v>-3.030303030303009</v>
+        <v>0</v>
       </c>
       <c r="L584" t="n">
         <v>15.45000000000001</v>
@@ -30415,7 +30435,7 @@
         <v>35.10000000000021</v>
       </c>
       <c r="K585" t="n">
-        <v>-21.42857142857133</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L585" t="n">
         <v>15.45000000000001</v>
@@ -30466,7 +30486,7 @@
         <v>35.20000000000021</v>
       </c>
       <c r="K586" t="n">
-        <v>-4.000000000000034</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L586" t="n">
         <v>15.48</v>
@@ -30517,7 +30537,7 @@
         <v>35.30000000000021</v>
       </c>
       <c r="K587" t="n">
-        <v>8.333333333333332</v>
+        <v>39.99999999999947</v>
       </c>
       <c r="L587" t="n">
         <v>15.51000000000001</v>
@@ -30568,7 +30588,7 @@
         <v>35.40000000000021</v>
       </c>
       <c r="K588" t="n">
-        <v>-4.347826086956561</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L588" t="n">
         <v>15.54</v>
@@ -30619,7 +30639,7 @@
         <v>35.40000000000021</v>
       </c>
       <c r="K589" t="n">
-        <v>-9.090909090909099</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L589" t="n">
         <v>15.56</v>
@@ -30670,7 +30690,7 @@
         <v>35.40000000000021</v>
       </c>
       <c r="K590" t="n">
-        <v>5.263157894736787</v>
+        <v>71.42857142857041</v>
       </c>
       <c r="L590" t="n">
         <v>15.59</v>
@@ -30721,7 +30741,7 @@
         <v>35.60000000000021</v>
       </c>
       <c r="K591" t="n">
-        <v>-4.761904761904725</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L591" t="n">
         <v>15.62</v>
@@ -30772,7 +30792,7 @@
         <v>35.60000000000021</v>
       </c>
       <c r="K592" t="n">
-        <v>-9.999999999999929</v>
+        <v>0</v>
       </c>
       <c r="L592" t="n">
         <v>15.63</v>
@@ -30823,7 +30843,7 @@
         <v>35.60000000000021</v>
       </c>
       <c r="K593" t="n">
-        <v>0</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L593" t="n">
         <v>15.63</v>
@@ -30925,7 +30945,7 @@
         <v>35.70000000000021</v>
       </c>
       <c r="K595" t="n">
-        <v>0</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L595" t="n">
         <v>15.63</v>
@@ -30976,7 +30996,7 @@
         <v>35.70000000000021</v>
       </c>
       <c r="K596" t="n">
-        <v>12.49999999999983</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L596" t="n">
         <v>15.62</v>
@@ -31027,7 +31047,7 @@
         <v>35.70000000000021</v>
       </c>
       <c r="K597" t="n">
-        <v>6.666666666666579</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L597" t="n">
         <v>15.6</v>
@@ -31078,7 +31098,7 @@
         <v>35.9000000000002</v>
       </c>
       <c r="K598" t="n">
-        <v>0</v>
+        <v>-60.00000000000064</v>
       </c>
       <c r="L598" t="n">
         <v>15.57</v>
@@ -31129,7 +31149,7 @@
         <v>36.00000000000021</v>
       </c>
       <c r="K599" t="n">
-        <v>0</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L599" t="n">
         <v>15.55</v>
@@ -31180,7 +31200,7 @@
         <v>36.00000000000021</v>
       </c>
       <c r="K600" t="n">
-        <v>6.666666666666611</v>
+        <v>0</v>
       </c>
       <c r="L600" t="n">
         <v>15.53</v>
@@ -31231,7 +31251,7 @@
         <v>36.10000000000021</v>
       </c>
       <c r="K601" t="n">
-        <v>28.57142857142848</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L601" t="n">
         <v>15.54</v>
@@ -31282,7 +31302,7 @@
         <v>36.10000000000021</v>
       </c>
       <c r="K602" t="n">
-        <v>16.66666666666657</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L602" t="n">
         <v>15.55</v>
@@ -31333,7 +31353,7 @@
         <v>36.10000000000021</v>
       </c>
       <c r="K603" t="n">
-        <v>9.090909090909047</v>
+        <v>0</v>
       </c>
       <c r="L603" t="n">
         <v>15.56</v>
@@ -31384,7 +31404,7 @@
         <v>36.20000000000021</v>
       </c>
       <c r="K604" t="n">
-        <v>-9.090909090909047</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L604" t="n">
         <v>15.55</v>
@@ -31435,7 +31455,7 @@
         <v>36.20000000000021</v>
       </c>
       <c r="K605" t="n">
-        <v>-9.090909090909047</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L605" t="n">
         <v>15.54</v>
@@ -31486,7 +31506,7 @@
         <v>36.30000000000021</v>
       </c>
       <c r="K606" t="n">
-        <v>-9.090909090909047</v>
+        <v>0</v>
       </c>
       <c r="L606" t="n">
         <v>15.54</v>
@@ -31537,7 +31557,7 @@
         <v>36.40000000000021</v>
       </c>
       <c r="K607" t="n">
-        <v>-27.27272727272731</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L607" t="n">
         <v>15.53</v>
@@ -31588,7 +31608,7 @@
         <v>36.50000000000021</v>
       </c>
       <c r="K608" t="n">
-        <v>-9.090909090909047</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L608" t="n">
         <v>15.55</v>
@@ -31639,7 +31659,7 @@
         <v>36.60000000000021</v>
       </c>
       <c r="K609" t="n">
-        <v>-16.66666666666657</v>
+        <v>0</v>
       </c>
       <c r="L609" t="n">
         <v>15.55</v>
@@ -31690,7 +31710,7 @@
         <v>36.60000000000021</v>
       </c>
       <c r="K610" t="n">
-        <v>-16.66666666666657</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L610" t="n">
         <v>15.55</v>
@@ -31741,7 +31761,7 @@
         <v>36.70000000000022</v>
       </c>
       <c r="K611" t="n">
-        <v>9.090909090908989</v>
+        <v>0</v>
       </c>
       <c r="L611" t="n">
         <v>15.55</v>
@@ -31792,7 +31812,7 @@
         <v>36.80000000000022</v>
       </c>
       <c r="K612" t="n">
-        <v>0</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L612" t="n">
         <v>15.54</v>
@@ -31843,7 +31863,7 @@
         <v>36.90000000000022</v>
       </c>
       <c r="K613" t="n">
-        <v>7.692307692307598</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L613" t="n">
         <v>15.54</v>
@@ -31894,7 +31914,7 @@
         <v>36.90000000000022</v>
       </c>
       <c r="K614" t="n">
-        <v>0</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L614" t="n">
         <v>15.55</v>
@@ -31945,7 +31965,7 @@
         <v>37.00000000000022</v>
       </c>
       <c r="K615" t="n">
-        <v>-7.692307692307598</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L615" t="n">
         <v>15.55</v>
@@ -31996,7 +32016,7 @@
         <v>37.10000000000022</v>
       </c>
       <c r="K616" t="n">
-        <v>-14.28571428571411</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L616" t="n">
         <v>15.53</v>
@@ -32047,7 +32067,7 @@
         <v>37.20000000000022</v>
       </c>
       <c r="K617" t="n">
-        <v>-19.99999999999974</v>
+        <v>-42.85714285714209</v>
       </c>
       <c r="L617" t="n">
         <v>15.51000000000001</v>
@@ -32098,7 +32118,7 @@
         <v>37.20000000000022</v>
       </c>
       <c r="K618" t="n">
-        <v>-7.692307692307556</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L618" t="n">
         <v>15.48000000000001</v>
@@ -32149,7 +32169,7 @@
         <v>37.20000000000022</v>
       </c>
       <c r="K619" t="n">
-        <v>-16.66666666666637</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L619" t="n">
         <v>15.46000000000001</v>
@@ -32200,7 +32220,7 @@
         <v>37.30000000000022</v>
       </c>
       <c r="K620" t="n">
-        <v>-23.0769230769228</v>
+        <v>-66.66666666666578</v>
       </c>
       <c r="L620" t="n">
         <v>15.43000000000001</v>
@@ -32251,7 +32271,7 @@
         <v>37.30000000000022</v>
       </c>
       <c r="K621" t="n">
-        <v>-33.33333333333289</v>
+        <v>-59.99999999999929</v>
       </c>
       <c r="L621" t="n">
         <v>15.39000000000001</v>
@@ -32302,7 +32322,7 @@
         <v>37.40000000000023</v>
       </c>
       <c r="K622" t="n">
-        <v>-23.07692307692267</v>
+        <v>-59.99999999999893</v>
       </c>
       <c r="L622" t="n">
         <v>15.37000000000001</v>
@@ -32353,7 +32373,7 @@
         <v>37.40000000000023</v>
       </c>
       <c r="K623" t="n">
-        <v>-23.07692307692267</v>
+        <v>-59.99999999999893</v>
       </c>
       <c r="L623" t="n">
         <v>15.34000000000001</v>
@@ -32404,7 +32424,7 @@
         <v>37.50000000000023</v>
       </c>
       <c r="K624" t="n">
-        <v>-23.0769230769228</v>
+        <v>-59.99999999999929</v>
       </c>
       <c r="L624" t="n">
         <v>15.30000000000001</v>
@@ -32455,7 +32475,7 @@
         <v>37.50000000000023</v>
       </c>
       <c r="K625" t="n">
-        <v>-23.0769230769228</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L625" t="n">
         <v>15.27000000000001</v>
@@ -32506,7 +32526,7 @@
         <v>37.60000000000023</v>
       </c>
       <c r="K626" t="n">
-        <v>-23.07692307692267</v>
+        <v>0</v>
       </c>
       <c r="L626" t="n">
         <v>15.26000000000001</v>
@@ -32557,7 +32577,7 @@
         <v>37.60000000000023</v>
       </c>
       <c r="K627" t="n">
-        <v>-16.66666666666637</v>
+        <v>0</v>
       </c>
       <c r="L627" t="n">
         <v>15.26000000000001</v>
@@ -32608,7 +32628,7 @@
         <v>37.70000000000023</v>
       </c>
       <c r="K628" t="n">
-        <v>-16.66666666666637</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L628" t="n">
         <v>15.27000000000001</v>
@@ -32659,7 +32679,7 @@
         <v>37.70000000000023</v>
       </c>
       <c r="K629" t="n">
-        <v>-9.090909090908928</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L629" t="n">
         <v>15.28000000000001</v>
@@ -32710,7 +32730,7 @@
         <v>37.80000000000023</v>
       </c>
       <c r="K630" t="n">
-        <v>-16.66666666666637</v>
+        <v>20</v>
       </c>
       <c r="L630" t="n">
         <v>15.29000000000001</v>
@@ -32761,7 +32781,7 @@
         <v>37.80000000000023</v>
       </c>
       <c r="K631" t="n">
-        <v>-27.27272727272679</v>
+        <v>0</v>
       </c>
       <c r="L631" t="n">
         <v>15.30000000000001</v>
@@ -32812,7 +32832,7 @@
         <v>37.80000000000023</v>
       </c>
       <c r="K632" t="n">
-        <v>-19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L632" t="n">
         <v>15.30000000000001</v>
@@ -32863,7 +32883,7 @@
         <v>37.90000000000023</v>
       </c>
       <c r="K633" t="n">
-        <v>-19.99999999999964</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L633" t="n">
         <v>15.31000000000001</v>
@@ -32914,7 +32934,7 @@
         <v>37.90000000000023</v>
       </c>
       <c r="K634" t="n">
-        <v>-19.99999999999964</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L634" t="n">
         <v>15.33000000000001</v>
@@ -32965,7 +32985,7 @@
         <v>38.10000000000024</v>
       </c>
       <c r="K635" t="n">
-        <v>9.090909090908928</v>
+        <v>59.99999999999893</v>
       </c>
       <c r="L635" t="n">
         <v>15.37000000000001</v>
@@ -33016,7 +33036,7 @@
         <v>38.10000000000024</v>
       </c>
       <c r="K636" t="n">
-        <v>19.99999999999964</v>
+        <v>59.99999999999893</v>
       </c>
       <c r="L636" t="n">
         <v>15.40000000000001</v>
@@ -33118,7 +33138,7 @@
         <v>38.30000000000024</v>
       </c>
       <c r="K638" t="n">
-        <v>9.090909090908928</v>
+        <v>0</v>
       </c>
       <c r="L638" t="n">
         <v>15.42000000000001</v>
@@ -33220,7 +33240,7 @@
         <v>38.50000000000024</v>
       </c>
       <c r="K640" t="n">
-        <v>16.66666666666652</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L640" t="n">
         <v>15.42000000000001</v>
@@ -33271,7 +33291,7 @@
         <v>38.60000000000024</v>
       </c>
       <c r="K641" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L641" t="n">
         <v>15.42000000000001</v>
@@ -33322,7 +33342,7 @@
         <v>38.60000000000024</v>
       </c>
       <c r="K642" t="n">
-        <v>0</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L642" t="n">
         <v>15.42000000000001</v>
@@ -33373,7 +33393,7 @@
         <v>38.60000000000024</v>
       </c>
       <c r="K643" t="n">
-        <v>0</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L643" t="n">
         <v>15.41000000000001</v>
@@ -33424,7 +33444,7 @@
         <v>38.60000000000024</v>
       </c>
       <c r="K644" t="n">
-        <v>9.090909090909092</v>
+        <v>-59.99999999999893</v>
       </c>
       <c r="L644" t="n">
         <v>15.40000000000001</v>
@@ -33475,7 +33495,7 @@
         <v>38.70000000000024</v>
       </c>
       <c r="K645" t="n">
-        <v>0</v>
+        <v>-66.66666666666578</v>
       </c>
       <c r="L645" t="n">
         <v>15.36000000000001</v>
@@ -33526,7 +33546,7 @@
         <v>38.90000000000025</v>
       </c>
       <c r="K646" t="n">
-        <v>7.692307692307556</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L646" t="n">
         <v>15.34000000000001</v>
@@ -33577,7 +33597,7 @@
         <v>39.10000000000025</v>
       </c>
       <c r="K647" t="n">
-        <v>-6.666666666666667</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L647" t="n">
         <v>15.31000000000001</v>
@@ -33628,7 +33648,7 @@
         <v>39.20000000000025</v>
       </c>
       <c r="K648" t="n">
-        <v>-6.666666666666549</v>
+        <v>0</v>
       </c>
       <c r="L648" t="n">
         <v>15.30000000000001</v>
@@ -33679,7 +33699,7 @@
         <v>39.30000000000025</v>
       </c>
       <c r="K649" t="n">
-        <v>-12.49999999999989</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L649" t="n">
         <v>15.29000000000001</v>
@@ -33730,7 +33750,7 @@
         <v>39.40000000000025</v>
       </c>
       <c r="K650" t="n">
-        <v>-12.49999999999989</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L650" t="n">
         <v>15.26000000000001</v>
@@ -33781,7 +33801,7 @@
         <v>39.40000000000025</v>
       </c>
       <c r="K651" t="n">
-        <v>-12.49999999999989</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L651" t="n">
         <v>15.24000000000001</v>
@@ -33832,7 +33852,7 @@
         <v>39.50000000000026</v>
       </c>
       <c r="K652" t="n">
-        <v>-5.88235294117647</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L652" t="n">
         <v>15.23</v>
@@ -33883,7 +33903,7 @@
         <v>39.70000000000026</v>
       </c>
       <c r="K653" t="n">
-        <v>-22.22222222222193</v>
+        <v>-27.27272727272695</v>
       </c>
       <c r="L653" t="n">
         <v>15.2</v>
@@ -33934,7 +33954,7 @@
         <v>39.80000000000026</v>
       </c>
       <c r="K654" t="n">
-        <v>-15.78947368421034</v>
+        <v>-9.090909090908928</v>
       </c>
       <c r="L654" t="n">
         <v>15.18</v>
@@ -33985,7 +34005,7 @@
         <v>39.90000000000026</v>
       </c>
       <c r="K655" t="n">
-        <v>-22.22222222222193</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L655" t="n">
         <v>15.18</v>
@@ -34036,7 +34056,7 @@
         <v>39.90000000000026</v>
       </c>
       <c r="K656" t="n">
-        <v>-22.22222222222193</v>
+        <v>0</v>
       </c>
       <c r="L656" t="n">
         <v>15.16</v>
@@ -34087,7 +34107,7 @@
         <v>40.00000000000026</v>
       </c>
       <c r="K657" t="n">
-        <v>-22.22222222222193</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L657" t="n">
         <v>15.15</v>

--- a/BackTest/2019-10-31 BackTest DVP.xlsx
+++ b/BackTest/2019-10-31 BackTest DVP.xlsx
@@ -451,17 +451,13 @@
         <v>13.73833333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>14.1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>13.74333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>14</v>
-      </c>
-      <c r="K3" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -539,14 +527,8 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -580,14 +562,8 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,22 +591,14 @@
         <v>13.78166666666666</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -664,14 +632,8 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,14 +667,8 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -746,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -787,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -828,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -869,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -910,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -951,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -992,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1033,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1074,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1115,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1156,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1197,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1238,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1279,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1320,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1361,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1402,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1443,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1484,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1525,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1566,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1607,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1648,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1689,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1730,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1771,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1812,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1853,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1894,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1935,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1976,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2017,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2058,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2099,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2134,22 +1886,14 @@
         <v>14.03666666666668</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K43" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2183,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2224,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2259,22 +1991,14 @@
         <v>14.01666666666668</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K46" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2302,22 +2026,14 @@
         <v>14.01333333333335</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="K47" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2345,22 +2061,14 @@
         <v>14.01000000000002</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="K48" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2388,22 +2096,14 @@
         <v>14.00333333333335</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K49" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2431,22 +2131,14 @@
         <v>13.99833333333335</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K50" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2474,22 +2166,14 @@
         <v>13.99166666666668</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K51" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2517,22 +2201,14 @@
         <v>13.98500000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="K52" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2560,22 +2236,14 @@
         <v>13.98500000000001</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K53" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2271,14 @@
         <v>13.98500000000001</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K54" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2646,22 +2306,14 @@
         <v>13.98333333333335</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K55" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2689,22 +2341,14 @@
         <v>13.98000000000002</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K56" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2732,22 +2376,14 @@
         <v>13.97666666666668</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K57" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2775,22 +2411,14 @@
         <v>13.97166666666669</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K58" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2818,22 +2446,14 @@
         <v>13.96666666666669</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K59" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2861,22 +2481,14 @@
         <v>13.95833333333335</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K60" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2904,22 +2516,14 @@
         <v>13.95333333333335</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K61" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2947,22 +2551,14 @@
         <v>13.94666666666669</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="K62" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2990,22 +2586,14 @@
         <v>13.94666666666669</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K63" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3039,16 +2627,12 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="K64" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>13.8</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3085,11 +2669,11 @@
         <v>13.7</v>
       </c>
       <c r="K65" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M65" t="n">
@@ -3128,11 +2712,11 @@
         <v>13.7</v>
       </c>
       <c r="K66" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M66" t="n">
@@ -3168,10 +2752,10 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="K67" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3214,7 +2798,7 @@
         <v>13.9</v>
       </c>
       <c r="K68" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3248,16 +2832,14 @@
         <v>13.90833333333335</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3291,16 +2873,14 @@
         <v>13.90166666666668</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3334,16 +2914,14 @@
         <v>13.89833333333335</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3377,16 +2955,14 @@
         <v>13.89666666666668</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3420,16 +2996,14 @@
         <v>13.89500000000001</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3463,16 +3037,14 @@
         <v>13.89500000000001</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3506,16 +3078,14 @@
         <v>13.89500000000001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>14</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3549,16 +3119,14 @@
         <v>13.89666666666668</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>14</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3592,16 +3160,14 @@
         <v>13.90000000000001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>14.1</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3635,16 +3201,14 @@
         <v>13.90333333333335</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>14.1</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3678,16 +3242,14 @@
         <v>13.90666666666668</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>14.2</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3728,7 +3290,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3769,7 +3331,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3810,7 +3372,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3851,7 +3413,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3892,7 +3454,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3933,7 +3495,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3974,7 +3536,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -4015,7 +3577,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4056,7 +3618,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4097,7 +3659,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4138,7 +3700,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4179,7 +3741,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4213,16 +3775,14 @@
         <v>13.88666666666668</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4256,16 +3816,14 @@
         <v>13.88666666666668</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>14.1</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4299,16 +3857,14 @@
         <v>13.88833333333335</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>14</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4342,16 +3898,14 @@
         <v>13.88333333333335</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>14.1</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4392,7 +3946,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4433,7 +3987,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4474,7 +4028,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4515,7 +4069,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4556,7 +4110,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4597,7 +4151,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4638,7 +4192,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4679,7 +4233,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4720,7 +4274,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4761,7 +4315,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4802,7 +4356,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4843,7 +4397,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4884,7 +4438,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4925,7 +4479,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4966,7 +4520,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -5007,7 +4561,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -5048,7 +4602,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5089,7 +4643,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5130,7 +4684,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5171,7 +4725,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5212,7 +4766,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5253,7 +4807,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5294,7 +4848,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5335,7 +4889,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5376,7 +4930,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5417,7 +4971,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5458,7 +5012,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5499,7 +5053,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5540,7 +5094,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5581,7 +5135,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5622,7 +5176,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5663,7 +5217,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5704,7 +5258,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5745,7 +5299,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5786,7 +5340,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5827,7 +5381,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5868,7 +5422,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5909,7 +5463,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5950,7 +5504,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5991,7 +5545,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -6032,7 +5586,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -6073,7 +5627,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -6107,16 +5661,14 @@
         <v>14.07000000000001</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -6150,16 +5702,14 @@
         <v>14.06333333333335</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -6193,16 +5743,14 @@
         <v>14.05666666666668</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -6236,16 +5784,14 @@
         <v>14.05166666666668</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -6279,16 +5825,14 @@
         <v>14.04833333333334</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6322,16 +5866,14 @@
         <v>14.04666666666668</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6365,16 +5907,14 @@
         <v>14.04333333333334</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6408,16 +5948,14 @@
         <v>14.04166666666667</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6451,16 +5989,14 @@
         <v>14.04000000000001</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6494,16 +6030,14 @@
         <v>14.03666666666667</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6537,16 +6071,14 @@
         <v>14.03333333333334</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6580,16 +6112,14 @@
         <v>14.03166666666667</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6623,16 +6153,14 @@
         <v>14.03333333333334</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>14</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6666,16 +6194,14 @@
         <v>14.03666666666667</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>14</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6709,16 +6235,14 @@
         <v>14.03833333333334</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>14</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6752,16 +6276,14 @@
         <v>14.03666666666667</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6795,16 +6317,14 @@
         <v>14.03166666666667</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6838,16 +6358,14 @@
         <v>14.02833333333334</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6881,16 +6399,14 @@
         <v>14.02333333333334</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -6924,16 +6440,14 @@
         <v>14.02</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -6967,16 +6481,14 @@
         <v>14.015</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>13.7</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -7010,16 +6522,14 @@
         <v>14.01166666666667</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -7053,16 +6563,14 @@
         <v>14.00833333333333</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -7096,16 +6604,14 @@
         <v>14.00166666666667</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -7139,16 +6645,14 @@
         <v>13.99666666666667</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -7182,16 +6686,14 @@
         <v>13.99166666666667</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -7225,16 +6727,14 @@
         <v>13.985</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -7268,16 +6768,14 @@
         <v>13.97833333333333</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>13.7</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -7311,16 +6809,14 @@
         <v>13.96833333333333</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>13.7</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -7354,16 +6850,14 @@
         <v>13.95833333333333</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>13.7</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -7397,16 +6891,14 @@
         <v>13.95166666666666</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -7440,16 +6932,14 @@
         <v>13.94666666666666</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -7483,16 +6973,14 @@
         <v>13.94</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -7526,16 +7014,14 @@
         <v>13.93166666666666</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -7569,16 +7055,14 @@
         <v>13.92166666666666</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -7612,16 +7096,14 @@
         <v>13.91333333333333</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -7655,16 +7137,14 @@
         <v>13.90833333333333</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -7698,16 +7178,14 @@
         <v>13.9</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>13.7</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -7741,16 +7219,14 @@
         <v>13.89333333333333</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>13.8</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -7784,16 +7260,14 @@
         <v>13.88999999999999</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -7827,16 +7301,14 @@
         <v>13.88666666666666</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -7870,16 +7342,14 @@
         <v>13.88499999999999</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -7913,16 +7383,14 @@
         <v>13.88166666666666</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -7956,16 +7424,14 @@
         <v>13.88166666666666</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>14.1</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -7999,16 +7465,14 @@
         <v>13.87999999999999</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>14.1</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -8042,16 +7506,14 @@
         <v>13.88166666666666</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>14</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -8085,16 +7547,14 @@
         <v>13.88333333333333</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>14.1</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -8128,16 +7588,14 @@
         <v>13.88333333333333</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>14.1</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -8178,7 +7636,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -8219,7 +7677,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -8253,16 +7711,14 @@
         <v>13.87999999999999</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -8296,16 +7752,14 @@
         <v>13.87833333333332</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -8339,16 +7793,14 @@
         <v>13.87666666666666</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -8382,16 +7834,14 @@
         <v>13.87666666666666</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>13.9</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -8425,16 +7875,14 @@
         <v>13.87833333333332</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>14</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -8468,16 +7916,14 @@
         <v>13.87999999999999</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>14</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -8511,16 +7957,14 @@
         <v>13.88166666666666</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>14.1</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -8554,16 +7998,14 @@
         <v>13.88666666666666</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>14.1</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -8604,7 +8046,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -8645,7 +8087,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -8686,7 +8128,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -8727,7 +8169,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -8768,7 +8210,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -8809,7 +8251,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -8850,7 +8292,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -8891,7 +8333,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -8932,7 +8374,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -8973,7 +8415,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -9014,7 +8456,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -9055,7 +8497,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -9096,7 +8538,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -9137,7 +8579,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -9178,7 +8620,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -9219,7 +8661,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -9260,7 +8702,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -9301,7 +8743,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -9342,7 +8784,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -9383,7 +8825,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -9424,7 +8866,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -9465,7 +8907,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -9506,7 +8948,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -9547,7 +8989,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -9588,7 +9030,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -9629,7 +9071,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -9670,7 +9112,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -9711,7 +9153,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -9752,7 +9194,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -9793,7 +9235,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -9834,7 +9276,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -9875,7 +9317,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -9916,7 +9358,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -9957,7 +9399,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -9998,7 +9440,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -10039,7 +9481,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -10080,7 +9522,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -10121,7 +9563,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -10162,7 +9604,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -10203,7 +9645,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -10244,7 +9686,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -10285,7 +9727,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -10326,7 +9768,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -10367,7 +9809,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -10408,7 +9850,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -10449,7 +9891,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -10490,7 +9932,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -10531,7 +9973,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -10572,7 +10014,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -10613,7 +10055,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -10654,7 +10096,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -10695,7 +10137,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -10736,7 +10178,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -10777,7 +10219,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -10818,7 +10260,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -10859,7 +10301,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -10900,7 +10342,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -10941,7 +10383,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -10982,7 +10424,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -11023,7 +10465,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -11064,7 +10506,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -11105,7 +10547,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -11146,7 +10588,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -11187,7 +10629,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -11228,7 +10670,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -11269,7 +10711,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -11310,7 +10752,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -11351,7 +10793,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -11392,7 +10834,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -11433,7 +10875,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -11474,7 +10916,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -11515,7 +10957,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -11556,7 +10998,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -11597,7 +11039,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -11638,7 +11080,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -11679,7 +11121,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -11720,7 +11162,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -11761,7 +11203,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -11802,7 +11244,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -11843,7 +11285,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -11884,7 +11326,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -11925,7 +11367,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -11966,7 +11408,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -12007,7 +11449,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -12048,7 +11490,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -12089,7 +11531,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -12130,7 +11572,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -12171,7 +11613,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -12212,7 +11654,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -12253,7 +11695,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -12294,7 +11736,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -12335,7 +11777,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -12376,7 +11818,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -12417,7 +11859,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -12458,7 +11900,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -12499,7 +11941,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -12540,7 +11982,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -12581,7 +12023,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -12622,7 +12064,7 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -12663,7 +12105,7 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -12704,7 +12146,7 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -12745,7 +12187,7 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -12786,7 +12228,7 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -12827,7 +12269,7 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -12868,7 +12310,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -12909,7 +12351,7 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -12950,7 +12392,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -12991,7 +12433,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -13032,7 +12474,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -13073,7 +12515,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -13114,7 +12556,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -13155,7 +12597,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -13196,7 +12638,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -13237,7 +12679,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -13278,7 +12720,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -13319,7 +12761,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -13360,7 +12802,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -13401,7 +12843,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -13442,7 +12884,7 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -13483,7 +12925,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -13524,7 +12966,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -13565,7 +13007,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -13606,7 +13048,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -13647,7 +13089,7 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -13688,7 +13130,7 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -13729,7 +13171,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -13770,7 +13212,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -13811,7 +13253,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -13852,7 +13294,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -13893,7 +13335,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -13934,7 +13376,7 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -13975,7 +13417,7 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -14016,7 +13458,7 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -14057,7 +13499,7 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -14098,7 +13540,7 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -14139,7 +13581,7 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -14180,7 +13622,7 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -14221,7 +13663,7 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L333" t="inlineStr">
         <is>
@@ -14262,7 +13704,7 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -14303,7 +13745,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -14344,7 +13786,7 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -14385,7 +13827,7 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -14426,7 +13868,7 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -14467,7 +13909,7 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -14508,7 +13950,7 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -14549,7 +13991,7 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -14590,7 +14032,7 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L342" t="inlineStr">
         <is>
@@ -14631,7 +14073,7 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
@@ -14672,7 +14114,7 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L344" t="inlineStr">
         <is>
@@ -14713,7 +14155,7 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L345" t="inlineStr">
         <is>
@@ -14754,7 +14196,7 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L346" t="inlineStr">
         <is>
@@ -14795,7 +14237,7 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L347" t="inlineStr">
         <is>
@@ -14836,7 +14278,7 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L348" t="inlineStr">
         <is>
@@ -14877,7 +14319,7 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L349" t="inlineStr">
         <is>
@@ -14918,7 +14360,7 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L350" t="inlineStr">
         <is>
@@ -14959,7 +14401,7 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L351" t="inlineStr">
         <is>
@@ -15000,7 +14442,7 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L352" t="inlineStr">
         <is>
@@ -15041,7 +14483,7 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L353" t="inlineStr">
         <is>
@@ -15082,7 +14524,7 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L354" t="inlineStr">
         <is>
@@ -15123,7 +14565,7 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L355" t="inlineStr">
         <is>
@@ -15164,7 +14606,7 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L356" t="inlineStr">
         <is>
@@ -15205,7 +14647,7 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L357" t="inlineStr">
         <is>
@@ -15246,7 +14688,7 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L358" t="inlineStr">
         <is>
@@ -15287,7 +14729,7 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L359" t="inlineStr">
         <is>
@@ -15328,7 +14770,7 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L360" t="inlineStr">
         <is>
@@ -15369,7 +14811,7 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L361" t="inlineStr">
         <is>
@@ -15410,7 +14852,7 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L362" t="inlineStr">
         <is>
@@ -15451,7 +14893,7 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L363" t="inlineStr">
         <is>
@@ -15492,7 +14934,7 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L364" t="inlineStr">
         <is>
@@ -15533,7 +14975,7 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L365" t="inlineStr">
         <is>
@@ -15574,7 +15016,7 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L366" t="inlineStr">
         <is>
@@ -15615,7 +15057,7 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L367" t="inlineStr">
         <is>
@@ -15656,7 +15098,7 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L368" t="inlineStr">
         <is>
@@ -15697,7 +15139,7 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L369" t="inlineStr">
         <is>
@@ -15738,7 +15180,7 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L370" t="inlineStr">
         <is>
@@ -15779,7 +15221,7 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L371" t="inlineStr">
         <is>
@@ -15820,7 +15262,7 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L372" t="inlineStr">
         <is>
@@ -15861,7 +15303,7 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L373" t="inlineStr">
         <is>
@@ -15902,7 +15344,7 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L374" t="inlineStr">
         <is>
@@ -15943,7 +15385,7 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L375" t="inlineStr">
         <is>
@@ -15984,7 +15426,7 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L376" t="inlineStr">
         <is>
@@ -16025,7 +15467,7 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L377" t="inlineStr">
         <is>
@@ -16066,7 +15508,7 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L378" t="inlineStr">
         <is>
@@ -16107,7 +15549,7 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L379" t="inlineStr">
         <is>
@@ -16148,7 +15590,7 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L380" t="inlineStr">
         <is>
@@ -16189,7 +15631,7 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L381" t="inlineStr">
         <is>
@@ -16230,7 +15672,7 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L382" t="inlineStr">
         <is>
@@ -16271,7 +15713,7 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L383" t="inlineStr">
         <is>
@@ -16312,7 +15754,7 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L384" t="inlineStr">
         <is>
@@ -16353,7 +15795,7 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L385" t="inlineStr">
         <is>
@@ -16394,7 +15836,7 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L386" t="inlineStr">
         <is>
@@ -16435,7 +15877,7 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L387" t="inlineStr">
         <is>
@@ -16476,7 +15918,7 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L388" t="inlineStr">
         <is>
@@ -16517,7 +15959,7 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L389" t="inlineStr">
         <is>
@@ -16558,7 +16000,7 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L390" t="inlineStr">
         <is>
@@ -16599,7 +16041,7 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L391" t="inlineStr">
         <is>
@@ -16640,7 +16082,7 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L392" t="inlineStr">
         <is>
@@ -16681,7 +16123,7 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L393" t="inlineStr">
         <is>
@@ -16722,7 +16164,7 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L394" t="inlineStr">
         <is>
@@ -16763,7 +16205,7 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L395" t="inlineStr">
         <is>
@@ -16804,7 +16246,7 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L396" t="inlineStr">
         <is>
@@ -16845,7 +16287,7 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L397" t="inlineStr">
         <is>
@@ -16886,7 +16328,7 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L398" t="inlineStr">
         <is>
@@ -16927,7 +16369,7 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L399" t="inlineStr">
         <is>
@@ -16968,7 +16410,7 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L400" t="inlineStr">
         <is>
@@ -17009,7 +16451,7 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L401" t="inlineStr">
         <is>
@@ -17050,7 +16492,7 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L402" t="inlineStr">
         <is>
@@ -17091,7 +16533,7 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L403" t="inlineStr">
         <is>
@@ -17132,7 +16574,7 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L404" t="inlineStr">
         <is>
@@ -17173,7 +16615,7 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L405" t="inlineStr">
         <is>
@@ -17214,7 +16656,7 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L406" t="inlineStr">
         <is>
@@ -17255,7 +16697,7 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L407" t="inlineStr">
         <is>
@@ -17296,7 +16738,7 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L408" t="inlineStr">
         <is>
@@ -17337,7 +16779,7 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L409" t="inlineStr">
         <is>
@@ -17378,7 +16820,7 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L410" t="inlineStr">
         <is>
@@ -17419,7 +16861,7 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L411" t="inlineStr">
         <is>
@@ -17460,7 +16902,7 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L412" t="inlineStr">
         <is>
@@ -17501,7 +16943,7 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L413" t="inlineStr">
         <is>
@@ -17542,7 +16984,7 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L414" t="inlineStr">
         <is>
@@ -17583,7 +17025,7 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L415" t="inlineStr">
         <is>
@@ -17624,7 +17066,7 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L416" t="inlineStr">
         <is>
@@ -17665,7 +17107,7 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L417" t="inlineStr">
         <is>
@@ -17706,7 +17148,7 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L418" t="inlineStr">
         <is>
@@ -17747,7 +17189,7 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L419" t="inlineStr">
         <is>
@@ -17788,7 +17230,7 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L420" t="inlineStr">
         <is>
@@ -17829,7 +17271,7 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L421" t="inlineStr">
         <is>
@@ -17870,7 +17312,7 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L422" t="inlineStr">
         <is>
@@ -17911,7 +17353,7 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L423" t="inlineStr">
         <is>
@@ -17952,7 +17394,7 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L424" t="inlineStr">
         <is>
@@ -17993,7 +17435,7 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L425" t="inlineStr">
         <is>
@@ -18034,7 +17476,7 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L426" t="inlineStr">
         <is>
@@ -18075,7 +17517,7 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L427" t="inlineStr">
         <is>
@@ -18116,7 +17558,7 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L428" t="inlineStr">
         <is>
@@ -18157,7 +17599,7 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L429" t="inlineStr">
         <is>
@@ -18198,7 +17640,7 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L430" t="inlineStr">
         <is>
@@ -18239,7 +17681,7 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L431" t="inlineStr">
         <is>
@@ -18280,7 +17722,7 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L432" t="inlineStr">
         <is>
@@ -18321,7 +17763,7 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L433" t="inlineStr">
         <is>
@@ -18362,7 +17804,7 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L434" t="inlineStr">
         <is>
@@ -18403,7 +17845,7 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L435" t="inlineStr">
         <is>
@@ -18444,7 +17886,7 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L436" t="inlineStr">
         <is>
@@ -18485,7 +17927,7 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L437" t="inlineStr">
         <is>
@@ -18526,7 +17968,7 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L438" t="inlineStr">
         <is>
@@ -18567,7 +18009,7 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L439" t="inlineStr">
         <is>
@@ -18608,7 +18050,7 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L440" t="inlineStr">
         <is>
@@ -18649,7 +18091,7 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L441" t="inlineStr">
         <is>
@@ -18690,7 +18132,7 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L442" t="inlineStr">
         <is>
@@ -18731,7 +18173,7 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L443" t="inlineStr">
         <is>
@@ -18772,7 +18214,7 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L444" t="inlineStr">
         <is>
@@ -18813,7 +18255,7 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L445" t="inlineStr">
         <is>
@@ -18854,7 +18296,7 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L446" t="inlineStr">
         <is>
@@ -18895,7 +18337,7 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L447" t="inlineStr">
         <is>
@@ -18936,7 +18378,7 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L448" t="inlineStr">
         <is>
@@ -18977,7 +18419,7 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L449" t="inlineStr">
         <is>
@@ -19018,7 +18460,7 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L450" t="inlineStr">
         <is>
@@ -19059,7 +18501,7 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L451" t="inlineStr">
         <is>
@@ -19100,7 +18542,7 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L452" t="inlineStr">
         <is>
@@ -19141,7 +18583,7 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L453" t="inlineStr">
         <is>
@@ -19182,7 +18624,7 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L454" t="inlineStr">
         <is>
@@ -19223,7 +18665,7 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L455" t="inlineStr">
         <is>
@@ -19264,7 +18706,7 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L456" t="inlineStr">
         <is>
@@ -19305,7 +18747,7 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L457" t="inlineStr">
         <is>
@@ -19346,7 +18788,7 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L458" t="inlineStr">
         <is>
@@ -19387,7 +18829,7 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L459" t="inlineStr">
         <is>
@@ -19428,7 +18870,7 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L460" t="inlineStr">
         <is>
@@ -19469,7 +18911,7 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L461" t="inlineStr">
         <is>
@@ -19510,7 +18952,7 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L462" t="inlineStr">
         <is>
@@ -19551,7 +18993,7 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L463" t="inlineStr">
         <is>
@@ -19592,7 +19034,7 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L464" t="inlineStr">
         <is>
@@ -19633,7 +19075,7 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L465" t="inlineStr">
         <is>
@@ -19674,7 +19116,7 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L466" t="inlineStr">
         <is>
@@ -19715,7 +19157,7 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L467" t="inlineStr">
         <is>
@@ -19756,7 +19198,7 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L468" t="inlineStr">
         <is>
@@ -19797,7 +19239,7 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L469" t="inlineStr">
         <is>
@@ -19838,7 +19280,7 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L470" t="inlineStr">
         <is>
@@ -19879,7 +19321,7 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L471" t="inlineStr">
         <is>
@@ -19920,7 +19362,7 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L472" t="inlineStr">
         <is>
@@ -19961,7 +19403,7 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L473" t="inlineStr">
         <is>
@@ -20002,7 +19444,7 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L474" t="inlineStr">
         <is>
@@ -20043,7 +19485,7 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L475" t="inlineStr">
         <is>
@@ -20084,7 +19526,7 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L476" t="inlineStr">
         <is>
@@ -20125,7 +19567,7 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L477" t="inlineStr">
         <is>
@@ -20166,7 +19608,7 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L478" t="inlineStr">
         <is>
@@ -20207,7 +19649,7 @@
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L479" t="inlineStr">
         <is>
@@ -20248,7 +19690,7 @@
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L480" t="inlineStr">
         <is>
@@ -20289,7 +19731,7 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L481" t="inlineStr">
         <is>
@@ -20330,7 +19772,7 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L482" t="inlineStr">
         <is>
@@ -20371,7 +19813,7 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L483" t="inlineStr">
         <is>
@@ -20412,7 +19854,7 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L484" t="inlineStr">
         <is>
@@ -20453,7 +19895,7 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L485" t="inlineStr">
         <is>
@@ -20494,7 +19936,7 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L486" t="inlineStr">
         <is>
@@ -20535,7 +19977,7 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L487" t="inlineStr">
         <is>
@@ -20576,7 +20018,7 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L488" t="inlineStr">
         <is>
@@ -20617,7 +20059,7 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L489" t="inlineStr">
         <is>
@@ -20658,7 +20100,7 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L490" t="inlineStr">
         <is>
@@ -20699,7 +20141,7 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L491" t="inlineStr">
         <is>
@@ -20740,7 +20182,7 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L492" t="inlineStr">
         <is>
@@ -20781,7 +20223,7 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L493" t="inlineStr">
         <is>
@@ -20822,7 +20264,7 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L494" t="inlineStr">
         <is>
@@ -20863,7 +20305,7 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L495" t="inlineStr">
         <is>
@@ -20904,7 +20346,7 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L496" t="inlineStr">
         <is>
@@ -20945,7 +20387,7 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L497" t="inlineStr">
         <is>
@@ -20986,7 +20428,7 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L498" t="inlineStr">
         <is>
@@ -21027,7 +20469,7 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L499" t="inlineStr">
         <is>
@@ -21068,7 +20510,7 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L500" t="inlineStr">
         <is>
@@ -21109,7 +20551,7 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L501" t="inlineStr">
         <is>
@@ -21150,7 +20592,7 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L502" t="inlineStr">
         <is>
@@ -21191,7 +20633,7 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L503" t="inlineStr">
         <is>
@@ -21232,7 +20674,7 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L504" t="inlineStr">
         <is>
@@ -21273,7 +20715,7 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L505" t="inlineStr">
         <is>
@@ -21314,7 +20756,7 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L506" t="inlineStr">
         <is>
@@ -21355,7 +20797,7 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L507" t="inlineStr">
         <is>
@@ -21396,7 +20838,7 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L508" t="inlineStr">
         <is>
@@ -21437,7 +20879,7 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L509" t="inlineStr">
         <is>
@@ -21478,7 +20920,7 @@
       </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L510" t="inlineStr">
         <is>
@@ -21519,7 +20961,7 @@
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L511" t="inlineStr">
         <is>
@@ -21560,7 +21002,7 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L512" t="inlineStr">
         <is>
@@ -21601,7 +21043,7 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L513" t="inlineStr">
         <is>
@@ -21642,7 +21084,7 @@
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L514" t="inlineStr">
         <is>
@@ -21683,7 +21125,7 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L515" t="inlineStr">
         <is>
@@ -21724,7 +21166,7 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L516" t="inlineStr">
         <is>
@@ -21765,7 +21207,7 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L517" t="inlineStr">
         <is>
@@ -21806,7 +21248,7 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L518" t="inlineStr">
         <is>
@@ -21847,7 +21289,7 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L519" t="inlineStr">
         <is>
@@ -21888,7 +21330,7 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L520" t="inlineStr">
         <is>
@@ -21929,7 +21371,7 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L521" t="inlineStr">
         <is>
@@ -21970,7 +21412,7 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L522" t="inlineStr">
         <is>
@@ -22011,7 +21453,7 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L523" t="inlineStr">
         <is>
@@ -22052,7 +21494,7 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L524" t="inlineStr">
         <is>
@@ -22093,7 +21535,7 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L525" t="inlineStr">
         <is>
@@ -22134,7 +21576,7 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L526" t="inlineStr">
         <is>
@@ -22175,7 +21617,7 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L527" t="inlineStr">
         <is>
@@ -22216,7 +21658,7 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L528" t="inlineStr">
         <is>
@@ -22257,7 +21699,7 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L529" t="inlineStr">
         <is>
@@ -22298,7 +21740,7 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L530" t="inlineStr">
         <is>
@@ -22339,7 +21781,7 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L531" t="inlineStr">
         <is>
@@ -22380,7 +21822,7 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L532" t="inlineStr">
         <is>
@@ -22421,7 +21863,7 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L533" t="inlineStr">
         <is>
@@ -22462,7 +21904,7 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L534" t="inlineStr">
         <is>
@@ -22503,7 +21945,7 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L535" t="inlineStr">
         <is>
@@ -22544,7 +21986,7 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L536" t="inlineStr">
         <is>
@@ -22585,7 +22027,7 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L537" t="inlineStr">
         <is>
@@ -22626,7 +22068,7 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L538" t="inlineStr">
         <is>
@@ -22667,7 +22109,7 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L539" t="inlineStr">
         <is>
@@ -22708,7 +22150,7 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L540" t="inlineStr">
         <is>
@@ -22749,7 +22191,7 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L541" t="inlineStr">
         <is>
@@ -22790,7 +22232,7 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L542" t="inlineStr">
         <is>
@@ -22831,7 +22273,7 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L543" t="inlineStr">
         <is>
@@ -22872,7 +22314,7 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L544" t="inlineStr">
         <is>
@@ -22913,7 +22355,7 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L545" t="inlineStr">
         <is>
@@ -22954,7 +22396,7 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L546" t="inlineStr">
         <is>
@@ -22995,7 +22437,7 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L547" t="inlineStr">
         <is>
@@ -23036,7 +22478,7 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L548" t="inlineStr">
         <is>
@@ -23077,7 +22519,7 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L549" t="inlineStr">
         <is>
@@ -23118,7 +22560,7 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L550" t="inlineStr">
         <is>
@@ -23159,7 +22601,7 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L551" t="inlineStr">
         <is>
@@ -23200,7 +22642,7 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L552" t="inlineStr">
         <is>
@@ -23241,7 +22683,7 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L553" t="inlineStr">
         <is>
@@ -23278,19 +22720,19 @@
         <v>0</v>
       </c>
       <c r="I554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="L554" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M554" t="n">
-        <v>1.080106382978724</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
@@ -23319,11 +22761,17 @@
         <v>0</v>
       </c>
       <c r="I555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="K555" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -23357,8 +22805,14 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="K556" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -23392,8 +22846,14 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="K557" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -23427,8 +22887,14 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="K558" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -23462,8 +22928,14 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="K559" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -23497,8 +22969,14 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="K560" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -23532,8 +23010,14 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="K561" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -23567,8 +23051,14 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="K562" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -23602,8 +23092,14 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="K563" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -23637,8 +23133,14 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="K564" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -23672,8 +23174,14 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="K565" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -23707,8 +23215,14 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="K566" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -23739,13 +23253,19 @@
         <v>0</v>
       </c>
       <c r="I567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="K567" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M567" t="n">
-        <v>1</v>
+        <v>1.125434782608696</v>
       </c>
     </row>
     <row r="568">
@@ -23774,7 +23294,7 @@
         <v>0</v>
       </c>
       <c r="I568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>

--- a/BackTest/2019-10-31 BackTest DVP.xlsx
+++ b/BackTest/2019-10-31 BackTest DVP.xlsx
@@ -484,7 +484,7 @@
         <v>-2385142.0839</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2391045.756699999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-2151712.040599999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-1384723.601999999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-1184723.601999999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-1184723.601999999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-1184723.601999999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-1179723.601999999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1180308.3846</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-1180308.3846</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-1180308.3846</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1180308.3846</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-1180308.3846</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-688186.3391999996</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-863663.5049999995</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-863663.5049999995</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-863663.5049999995</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-850223.0014999995</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-850223.0014999995</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-850223.0014999995</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>946603.9971000005</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>2148411.468435212</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>1318478.012235212</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>1417764.395135212</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>1417764.395135212</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>1417764.395135212</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>1746309.535735212</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>1746309.535735212</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>1309608.286135212</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>1309608.286135212</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1418081.664364788</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1418081.664364788</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1418081.664364788</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-1019497.282864788</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-1019497.282864788</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-957338.211564788</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-916983.090764788</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-916973.090764788</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-1994781.781064788</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-1895781.781064788</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-1803452.174564788</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1705079.563264788</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1705079.563264788</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1705079.563264788</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-352393.0439859149</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-354709.3784070417</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-1243941.396907042</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-2185265.140807042</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-2185265.140807042</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-2671913.035007042</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-3615873.167120899</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-3592494.43268943</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-3592494.43268943</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-3618312.11818943</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-3618312.11818943</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-3618302.11818943</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-3633474.79418943</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-3633474.79418943</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-5237010.873502197</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-5237010.873502197</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-5237010.873502197</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-5237010.873502197</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-5237010.873502197</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-5378877.540102197</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-5378877.540102197</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-5266460.241802197</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-5266460.241802197</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-5266460.241802197</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-5267410.044402197</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-5257619.834702197</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-5597210.480502198</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-5597210.480502198</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-5597210.480502198</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-5694706.406102197</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-5690027.180802197</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-5707657.275702197</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-5660235.582302197</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-5677261.631902196</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-6054526.256102197</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-6054526.256102197</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-6054526.256102197</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-5754370.329602198</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-5754370.329602198</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-5762539.081902198</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-5736630.970102197</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-5769636.710502197</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-5769636.710502197</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-5769636.710502197</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-5769636.710502197</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-5769636.710502197</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-5769636.710502197</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-5875564.206702197</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-6146258.045802196</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-6146258.045802196</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11011,10 +11011,14 @@
         <v>-6686506.887102196</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J322" t="n">
+        <v>14.3</v>
+      </c>
       <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
@@ -11044,11 +11048,19 @@
         <v>-6686506.887102196</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J323" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11077,11 +11089,19 @@
         <v>-6686506.887102196</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J324" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11110,10 +11130,14 @@
         <v>-6686506.887102196</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J325" t="n">
+        <v>14.3</v>
+      </c>
       <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
@@ -11143,11 +11167,19 @@
         <v>-6686496.887102196</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J326" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11179,8 +11211,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11242,7 +11280,7 @@
         <v>-6686496.887102196</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,10 +11313,14 @@
         <v>-6686496.887102196</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J330" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
@@ -11308,11 +11350,19 @@
         <v>-6686496.887102196</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J331" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11341,11 +11391,19 @@
         <v>-6686496.887102196</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J332" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11374,10 +11432,14 @@
         <v>-6686496.887102196</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J333" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
@@ -11407,11 +11469,19 @@
         <v>-6686496.887102196</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J334" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11440,11 +11510,19 @@
         <v>-6686496.887102196</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J335" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11473,10 +11551,14 @@
         <v>-6654629.369902196</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J336" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
@@ -11506,11 +11588,19 @@
         <v>-6654629.369902196</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J337" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11539,11 +11629,19 @@
         <v>-6654629.369902196</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J338" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +11670,19 @@
         <v>-6930505.328485338</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J339" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11605,11 +11711,19 @@
         <v>-6961669.498385338</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J340" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11638,11 +11752,19 @@
         <v>-6961669.498385338</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J341" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11671,11 +11793,19 @@
         <v>-6938968.946685338</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J342" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11704,11 +11834,19 @@
         <v>-6938968.946685338</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J343" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11737,11 +11875,19 @@
         <v>-6987464.706185338</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I344" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J344" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11770,11 +11916,19 @@
         <v>-6987454.706185338</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J345" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11803,11 +11957,19 @@
         <v>-7013103.594985338</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J346" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11836,11 +11998,19 @@
         <v>-7321479.680785337</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J347" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11869,11 +12039,19 @@
         <v>-7173425.306485337</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J348" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11902,11 +12080,19 @@
         <v>-7173425.306485337</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J349" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11935,11 +12121,19 @@
         <v>-7173425.306485337</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J350" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11968,11 +12162,19 @@
         <v>-7112147.321685337</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J351" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12001,11 +12203,19 @@
         <v>-7112147.321685337</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J352" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12034,11 +12244,19 @@
         <v>-7283238.098985338</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J353" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12067,11 +12285,19 @@
         <v>-7282687.114385338</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J354" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12100,11 +12326,19 @@
         <v>-7282687.114385338</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J355" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12133,11 +12367,19 @@
         <v>-7340328.101185338</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J356" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12166,11 +12408,19 @@
         <v>-7340328.101185338</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J357" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12199,11 +12449,19 @@
         <v>-7239261.404985338</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J358" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12232,11 +12490,19 @@
         <v>-7296961.404985338</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J359" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12265,11 +12531,19 @@
         <v>-7296961.404985338</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J360" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12298,11 +12572,19 @@
         <v>-7296961.404985338</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J361" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12331,11 +12613,19 @@
         <v>-7296950.404985338</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J362" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +12654,19 @@
         <v>-7481972.414885337</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J363" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12397,11 +12695,19 @@
         <v>-7475727.918385337</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J364" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12430,11 +12736,19 @@
         <v>-7467047.918385337</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J365" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12463,11 +12777,19 @@
         <v>-7467047.918385337</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J366" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12496,11 +12818,19 @@
         <v>-7476192.404485337</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J367" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12529,11 +12859,19 @@
         <v>-7476192.404485337</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J368" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12562,11 +12900,19 @@
         <v>-7476192.404485337</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J369" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12595,11 +12941,19 @@
         <v>-7476192.404485337</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J370" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12628,11 +12982,19 @@
         <v>-7476126.611385337</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J371" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12661,11 +13023,19 @@
         <v>-7476126.611385337</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J372" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12694,11 +13064,19 @@
         <v>-7476126.611385337</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J373" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12727,11 +13105,19 @@
         <v>-7476126.611385337</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J374" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12760,11 +13146,19 @@
         <v>-7476126.611385337</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J375" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12793,11 +13187,19 @@
         <v>-7681814.717785337</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J376" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12826,11 +13228,19 @@
         <v>-7681804.717785337</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J377" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12859,11 +13269,19 @@
         <v>-7681804.717785337</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J378" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12892,11 +13310,19 @@
         <v>-7681804.717785337</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J379" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12925,11 +13351,19 @@
         <v>-7681804.717785337</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J380" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12958,11 +13392,19 @@
         <v>-7685940.582585337</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J381" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12991,11 +13433,19 @@
         <v>-7238230.870385337</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J382" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13024,11 +13474,19 @@
         <v>-7238230.870385337</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J383" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13057,11 +13515,19 @@
         <v>-7238230.870385337</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J384" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13090,11 +13556,19 @@
         <v>-7123364.440885337</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J385" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13123,11 +13597,19 @@
         <v>-7123364.440885337</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J386" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13156,11 +13638,19 @@
         <v>-7123364.440885337</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J387" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13189,11 +13679,19 @@
         <v>-7123364.440885337</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J388" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13222,11 +13720,19 @@
         <v>-7123364.440885337</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J389" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13255,11 +13761,19 @@
         <v>-7123364.440885337</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J390" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13288,11 +13802,19 @@
         <v>-6975470.146285337</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J391" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13321,11 +13843,19 @@
         <v>-6975564.440285337</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J392" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13354,11 +13884,19 @@
         <v>-6975564.440285337</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J393" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13387,11 +13925,19 @@
         <v>-6975553.440285337</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J394" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13420,11 +13966,19 @@
         <v>-6975553.440285337</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J395" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13453,11 +14007,19 @@
         <v>-7106454.830385338</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J396" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13486,11 +14048,19 @@
         <v>-7047342.585487379</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J397" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13519,11 +14089,19 @@
         <v>-7047342.585487379</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J398" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13552,11 +14130,19 @@
         <v>-6943495.699387379</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J399" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13585,11 +14171,19 @@
         <v>-6943495.699387379</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J400" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13618,11 +14212,19 @@
         <v>-7063891.601587379</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J401" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13651,11 +14253,19 @@
         <v>-7063891.601587379</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J402" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +14294,19 @@
         <v>-7036928.604287379</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J403" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13717,11 +14335,19 @@
         <v>-7194273.359487379</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J404" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13750,11 +14376,19 @@
         <v>-7194273.359487379</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J405" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13783,11 +14417,19 @@
         <v>-7229501.647087379</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J406" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13816,11 +14458,19 @@
         <v>-7229501.647087379</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J407" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13849,11 +14499,19 @@
         <v>-7229501.647087379</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J408" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13882,11 +14540,19 @@
         <v>-7286322.90958738</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J409" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13915,11 +14581,19 @@
         <v>-7286322.90958738</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J410" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13948,11 +14622,19 @@
         <v>-7286322.90958738</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J411" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13981,11 +14663,19 @@
         <v>-7371161.368187379</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J412" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14014,11 +14704,19 @@
         <v>-7371161.368187379</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J413" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14047,11 +14745,19 @@
         <v>-7371161.368187379</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J414" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14080,11 +14786,19 @@
         <v>-7190133.539587379</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J415" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14113,11 +14827,19 @@
         <v>-7190133.539587379</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J416" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14146,11 +14868,19 @@
         <v>-7190133.539587379</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J417" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14179,11 +14909,19 @@
         <v>-7190133.539587379</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J418" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14212,11 +14950,19 @@
         <v>-7190133.539587379</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J419" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14245,11 +14991,19 @@
         <v>-7190133.539587379</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J420" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14278,11 +15032,19 @@
         <v>-7208760.916287379</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J421" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14311,11 +15073,19 @@
         <v>-7208760.916287379</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J422" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14344,11 +15114,19 @@
         <v>-7204911.594587379</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J423" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14377,11 +15155,19 @@
         <v>-7361909.332487379</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J424" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14410,11 +15196,19 @@
         <v>-7361809.332487379</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J425" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14443,11 +15237,19 @@
         <v>-7361809.332487379</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J426" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14476,11 +15278,19 @@
         <v>-7361809.332487379</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J427" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14509,11 +15319,19 @@
         <v>-7361809.332487379</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J428" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14542,11 +15360,19 @@
         <v>-7361809.332487379</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J429" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14575,11 +15401,19 @@
         <v>-7361831.582487379</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J430" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14608,11 +15442,19 @@
         <v>-7361831.582487379</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J431" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14641,11 +15483,19 @@
         <v>-7361831.582487379</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J432" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14674,11 +15524,19 @@
         <v>-7326881.99348738</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J433" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14707,11 +15565,19 @@
         <v>-7375129.00718738</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J434" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14740,11 +15606,19 @@
         <v>-7375129.00718738</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J435" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14773,11 +15647,19 @@
         <v>-7375129.00718738</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J436" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14806,11 +15688,19 @@
         <v>-7375129.00718738</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J437" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14839,11 +15729,19 @@
         <v>-7375141.522787379</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J438" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14872,11 +15770,19 @@
         <v>-7375141.522787379</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J439" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14905,11 +15811,19 @@
         <v>-7375141.522787379</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J440" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14938,11 +15852,19 @@
         <v>-7375141.522787379</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J441" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14971,11 +15893,19 @@
         <v>-7375141.522787379</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J442" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15004,11 +15934,19 @@
         <v>-7375179.06968738</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J443" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15037,11 +15975,19 @@
         <v>-7375179.06968738</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J444" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15070,11 +16016,19 @@
         <v>-7375179.06968738</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J445" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15103,11 +16057,19 @@
         <v>-7375179.06968738</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J446" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15136,11 +16098,19 @@
         <v>-7375179.06968738</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J447" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15169,11 +16139,19 @@
         <v>-7396828.71058738</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J448" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15202,11 +16180,19 @@
         <v>-7396828.71058738</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J449" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15235,11 +16221,19 @@
         <v>-7396728.71058738</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J450" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15268,11 +16262,19 @@
         <v>-7459728.71058738</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J451" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15301,11 +16303,19 @@
         <v>-7354823.60578738</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J452" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15334,11 +16344,19 @@
         <v>-7421392.83198738</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J453" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15367,11 +16385,19 @@
         <v>-7421392.83198738</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J454" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15400,11 +16426,19 @@
         <v>-7421392.83198738</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J455" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15433,11 +16467,19 @@
         <v>-7450354.52208738</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J456" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15466,11 +16508,19 @@
         <v>-7135815.92668738</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J457" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15499,11 +16549,19 @@
         <v>-7135815.92668738</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J458" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15532,11 +16590,19 @@
         <v>-7135815.92668738</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J459" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15565,11 +16631,19 @@
         <v>-7135805.01768738</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J460" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15598,11 +16672,19 @@
         <v>-7136449.56768738</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J461" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15631,11 +16713,19 @@
         <v>-7136449.56768738</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J462" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15664,11 +16754,19 @@
         <v>-7136449.56768738</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J463" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15697,11 +16795,19 @@
         <v>-7637579.05458738</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J464" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15730,11 +16836,19 @@
         <v>-7637579.05458738</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J465" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15763,11 +16877,19 @@
         <v>-7637579.05458738</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J466" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15796,11 +16918,19 @@
         <v>-7423065.18138738</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J467" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15829,11 +16959,19 @@
         <v>-7423065.18138738</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J468" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15868,9 +17006,13 @@
         <v>14.2</v>
       </c>
       <c r="J469" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="K469" t="inlineStr"/>
+        <v>14.4</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15905,11 +17047,11 @@
         <v>14.1</v>
       </c>
       <c r="J470" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L470" t="n">
@@ -15946,11 +17088,11 @@
         <v>14.2</v>
       </c>
       <c r="J471" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L471" t="n">
@@ -15981,11 +17123,13 @@
         <v>-7696658.89558738</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>14.1</v>
+      </c>
       <c r="J472" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -16026,7 +17170,7 @@
         <v>14.1</v>
       </c>
       <c r="J473" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -16067,7 +17211,7 @@
         <v>14.1</v>
       </c>
       <c r="J474" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16108,7 +17252,7 @@
         <v>14.2</v>
       </c>
       <c r="J475" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -16143,11 +17287,13 @@
         <v>-7680452.56268738</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>14.2</v>
+      </c>
       <c r="J476" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -16188,7 +17334,7 @@
         <v>14.2</v>
       </c>
       <c r="J477" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -16229,7 +17375,7 @@
         <v>14.2</v>
       </c>
       <c r="J478" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -16270,7 +17416,7 @@
         <v>14.3</v>
       </c>
       <c r="J479" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -16311,7 +17457,7 @@
         <v>14.2</v>
       </c>
       <c r="J480" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -16352,7 +17498,7 @@
         <v>14.2</v>
       </c>
       <c r="J481" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -16393,7 +17539,7 @@
         <v>14.2</v>
       </c>
       <c r="J482" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -16434,7 +17580,7 @@
         <v>14.1</v>
       </c>
       <c r="J483" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -16475,7 +17621,7 @@
         <v>14.3</v>
       </c>
       <c r="J484" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -16516,7 +17662,7 @@
         <v>14.3</v>
       </c>
       <c r="J485" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -16557,7 +17703,7 @@
         <v>14.3</v>
       </c>
       <c r="J486" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -16598,7 +17744,7 @@
         <v>14.4</v>
       </c>
       <c r="J487" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -16639,7 +17785,7 @@
         <v>14.4</v>
       </c>
       <c r="J488" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -16680,7 +17826,7 @@
         <v>14.4</v>
       </c>
       <c r="J489" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -16715,19 +17861,21 @@
         <v>-7761228.267942936</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J490" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L490" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
       <c r="M490" t="inlineStr"/>
     </row>
@@ -16760,9 +17908,13 @@
         <v>14.2</v>
       </c>
       <c r="J491" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="K491" t="inlineStr"/>
+        <v>14.4</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16791,15 +17943,17 @@
         <v>-7779575.624442936</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J492" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L492" t="n">
@@ -16830,15 +17984,17 @@
         <v>-7779575.624442936</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>14.3</v>
+      </c>
       <c r="J493" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L493" t="n">
@@ -16869,11 +18025,19 @@
         <v>-7637685.277242936</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J494" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16910,7 +18074,11 @@
       <c r="J495" t="n">
         <v>14.4</v>
       </c>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16939,15 +18107,17 @@
         <v>-7699566.512142937</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>14.3</v>
+      </c>
       <c r="J496" t="n">
         <v>14.4</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L496" t="n">
@@ -16978,9 +18148,11 @@
         <v>-7699566.512142937</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J497" t="n">
         <v>14.4</v>
       </c>
@@ -17017,9 +18189,11 @@
         <v>-7713246.498442937</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J498" t="n">
         <v>14.4</v>
       </c>
@@ -17056,9 +18230,11 @@
         <v>-7713246.498442937</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>14.3</v>
+      </c>
       <c r="J499" t="n">
         <v>14.4</v>
       </c>
@@ -17095,9 +18271,11 @@
         <v>-7713246.498442937</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>14.3</v>
+      </c>
       <c r="J500" t="n">
         <v>14.4</v>
       </c>
@@ -17134,9 +18312,11 @@
         <v>-7056959.019198492</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>14.3</v>
+      </c>
       <c r="J501" t="n">
         <v>14.4</v>
       </c>
@@ -17173,9 +18353,11 @@
         <v>-7056959.019198492</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J502" t="n">
         <v>14.4</v>
       </c>
@@ -17212,9 +18394,11 @@
         <v>-7057712.438798492</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J503" t="n">
         <v>14.4</v>
       </c>
@@ -17251,9 +18435,11 @@
         <v>-7057712.438798492</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>14.3</v>
+      </c>
       <c r="J504" t="n">
         <v>14.4</v>
       </c>
@@ -17290,9 +18476,11 @@
         <v>-7057512.438798492</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>14.3</v>
+      </c>
       <c r="J505" t="n">
         <v>14.4</v>
       </c>
@@ -17329,9 +18517,11 @@
         <v>-7057512.438798492</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J506" t="n">
         <v>14.4</v>
       </c>
@@ -17368,19 +18558,21 @@
         <v>-7066084.658198492</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J507" t="n">
         <v>14.4</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L507" t="n">
-        <v>0.9880555555555556</v>
+        <v>1</v>
       </c>
       <c r="M507" t="inlineStr"/>
     </row>
@@ -17407,11 +18599,19 @@
         <v>-7066084.658198492</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J508" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17440,11 +18640,19 @@
         <v>-7051744.872198491</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J509" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17473,11 +18681,19 @@
         <v>-6756293.780898491</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J510" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17506,11 +18722,19 @@
         <v>-6756293.780898491</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J511" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17539,11 +18763,19 @@
         <v>-6718640.197298491</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J512" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17572,11 +18804,19 @@
         <v>-6724533.870298492</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J513" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17605,11 +18845,19 @@
         <v>-6724533.870298492</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J514" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17638,11 +18886,19 @@
         <v>-6775927.228498491</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J515" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17671,11 +18927,19 @@
         <v>-6775927.228498491</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J516" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17704,11 +18968,19 @@
         <v>-6360655.999098492</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J517" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17737,11 +19009,19 @@
         <v>-6316735.588198492</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J518" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17770,11 +19050,19 @@
         <v>-6316735.588198492</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J519" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17803,11 +19091,19 @@
         <v>-6316735.588198492</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J520" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17836,11 +19132,19 @@
         <v>-6316735.588198492</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J521" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17869,11 +19173,19 @@
         <v>-6596176.593398493</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J522" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17902,11 +19214,19 @@
         <v>-6596176.593398493</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J523" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17935,11 +19255,19 @@
         <v>-6596176.593398493</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J524" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17968,11 +19296,19 @@
         <v>-6596166.593398493</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J525" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18001,11 +19337,19 @@
         <v>-6596166.593398493</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J526" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18034,11 +19378,19 @@
         <v>-6596166.593398493</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J527" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18067,11 +19419,19 @@
         <v>-7076695.213998493</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J528" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18100,11 +19460,19 @@
         <v>-7076695.213998493</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J529" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18133,11 +19501,19 @@
         <v>-7076695.213998493</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J530" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18166,11 +19542,19 @@
         <v>-7076695.213998493</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J531" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18199,11 +19583,19 @@
         <v>-7076695.213998493</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J532" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18232,11 +19624,19 @@
         <v>-7076695.213998493</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J533" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18265,11 +19665,19 @@
         <v>-7076695.213998493</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J534" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18298,11 +19706,19 @@
         <v>-7330831.358598493</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J535" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18331,11 +19747,19 @@
         <v>-7330831.358598493</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J536" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18364,11 +19788,19 @@
         <v>-7315611.875898493</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J537" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18397,11 +19829,19 @@
         <v>-7345220.269398494</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J538" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18430,11 +19870,19 @@
         <v>-7345220.269398494</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J539" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18463,11 +19911,19 @@
         <v>-7939853.162798494</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J540" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18496,11 +19952,19 @@
         <v>-7939853.162798494</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J541" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18529,11 +19993,19 @@
         <v>-8077532.718498494</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J542" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18562,11 +20034,19 @@
         <v>-8239863.705498494</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J543" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18595,11 +20075,19 @@
         <v>-8143301.758398494</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="J544" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18628,11 +20116,19 @@
         <v>-8143301.758398494</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J545" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18661,11 +20157,19 @@
         <v>-8143301.758398494</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J546" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18694,11 +20198,19 @@
         <v>-8143301.758398494</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J547" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18727,11 +20239,19 @@
         <v>-8143301.758398494</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J548" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18760,11 +20280,19 @@
         <v>-8143301.758398494</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J549" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18793,11 +20321,19 @@
         <v>-8143201.758398494</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J550" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18826,11 +20362,19 @@
         <v>-8143201.758398494</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J551" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18859,11 +20403,19 @@
         <v>-8143201.758398494</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J552" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18892,11 +20444,19 @@
         <v>-8141201.758398494</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J553" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18925,11 +20485,19 @@
         <v>-8141211.758398494</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J554" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18958,11 +20526,19 @@
         <v>-8141211.758398494</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J555" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18991,11 +20567,19 @@
         <v>-8141211.758398494</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J556" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19024,11 +20608,19 @@
         <v>-8141211.758398494</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J557" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19057,11 +20649,19 @@
         <v>-8141211.758398494</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J558" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19090,11 +20690,19 @@
         <v>-8156955.758398494</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J559" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19123,11 +20731,19 @@
         <v>-8156944.758398494</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J560" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19156,11 +20772,19 @@
         <v>-8156944.758398494</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J561" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19189,11 +20813,19 @@
         <v>-8156944.758398494</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J562" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19222,11 +20854,19 @@
         <v>-8398740.615198493</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J563" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19255,11 +20895,19 @@
         <v>-8398740.615198493</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J564" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19288,11 +20936,19 @@
         <v>-8398740.615198493</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J565" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19321,11 +20977,19 @@
         <v>-8398740.615198493</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J566" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19354,11 +21018,19 @@
         <v>-8398740.615198493</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J567" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19387,11 +21059,19 @@
         <v>-8398740.615198493</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J568" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19420,11 +21100,19 @@
         <v>-8297249.851398493</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J569" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19453,11 +21141,19 @@
         <v>-8305229.851398493</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J570" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19486,11 +21182,19 @@
         <v>-8305229.851398493</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J571" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19519,11 +21223,19 @@
         <v>-8305229.851398493</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J572" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19552,11 +21264,19 @@
         <v>-7775897.915098493</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J573" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19585,11 +21305,19 @@
         <v>-7466524.932098493</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="J574" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19618,11 +21346,19 @@
         <v>-7401022.199398493</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J575" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19651,11 +21387,19 @@
         <v>-7747017.375098493</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J576" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19684,11 +21428,19 @@
         <v>-7641635.371098493</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J577" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19717,11 +21469,19 @@
         <v>-7641635.371098493</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J578" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19750,11 +21510,19 @@
         <v>-6981438.530098493</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J579" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19788,10 +21556,12 @@
       <c r="I580" t="n">
         <v>14.8</v>
       </c>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L580" t="n">
@@ -19822,10 +21592,14 @@
         <v>-6981438.530098493</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J581" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19859,10 +21633,14 @@
         <v>-6229784.520398493</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J582" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19896,10 +21674,14 @@
         <v>-6229784.520398493</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J583" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19933,10 +21715,14 @@
         <v>-6229784.520398493</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J584" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19970,10 +21756,14 @@
         <v>-6229784.520398493</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J585" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20007,10 +21797,14 @@
         <v>-7254615.922498493</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J586" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20044,10 +21838,14 @@
         <v>-7254605.922498493</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J587" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20081,10 +21879,14 @@
         <v>-7254605.922498493</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J588" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20118,10 +21920,14 @@
         <v>-7254605.922498493</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J589" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20155,10 +21961,14 @@
         <v>-7577089.882198492</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J590" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20192,10 +22002,14 @@
         <v>-7505275.101998492</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J591" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20229,10 +22043,14 @@
         <v>-7505275.101998492</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J592" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20266,10 +22084,14 @@
         <v>-7505275.101998492</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J593" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20303,10 +22125,14 @@
         <v>-7831596.879198493</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J594" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20340,10 +22166,14 @@
         <v>-7790286.818398492</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J595" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20377,10 +22207,14 @@
         <v>-8084875.142798493</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J596" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20414,10 +22248,14 @@
         <v>-8084875.142798493</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J597" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20451,10 +22289,14 @@
         <v>-8084875.142798493</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J598" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20488,10 +22330,14 @@
         <v>-8080975.886098493</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J599" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20525,10 +22371,14 @@
         <v>-8080975.886098493</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J600" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20562,10 +22412,14 @@
         <v>-8080975.886098493</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J601" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20599,10 +22453,14 @@
         <v>-8276498.420798493</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J602" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20636,10 +22494,14 @@
         <v>-8227531.596498492</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="J603" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20673,10 +22535,14 @@
         <v>-8227531.596498492</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J604" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20710,10 +22576,14 @@
         <v>-8227531.596498492</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J605" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20747,10 +22617,14 @@
         <v>-8227531.596498492</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J606" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20784,10 +22658,14 @@
         <v>-7621731.876098492</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J607" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20821,10 +22699,14 @@
         <v>-6317679.666098492</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J608" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20858,10 +22740,14 @@
         <v>-4078306.875998492</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>15</v>
+      </c>
+      <c r="J609" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20898,7 +22784,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20935,7 +22823,9 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20972,7 +22862,9 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21009,7 +22901,9 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21046,7 +22940,9 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21083,7 +22979,9 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21120,7 +23018,9 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21157,7 +23057,9 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21194,7 +23096,9 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21231,7 +23135,9 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21268,7 +23174,9 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21305,7 +23213,9 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21342,7 +23252,9 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21379,7 +23291,9 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21413,19 +23327,23 @@
         <v>1651777.282099605</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>14.4</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L624" t="n">
-        <v>1</v>
-      </c>
-      <c r="M624" t="inlineStr"/>
+        <v>1.12</v>
+      </c>
+      <c r="M624" t="n">
+        <v>1.098484848484849</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
@@ -21450,15 +23368,11 @@
         <v>-1221935.936605814</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21487,15 +23401,11 @@
         <v>-1900321.082321004</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21524,15 +23434,11 @@
         <v>-1186365.889493155</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21565,11 +23471,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21598,15 +23500,11 @@
         <v>-2451074.82350376</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21635,15 +23533,11 @@
         <v>-2451074.82350376</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21672,15 +23566,11 @@
         <v>-2162084.29410376</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21709,15 +23599,11 @@
         <v>-2629543.60570376</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21746,15 +23632,11 @@
         <v>-1997880.507494899</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21783,15 +23665,11 @@
         <v>-1997880.507494899</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21820,15 +23698,11 @@
         <v>-3038599.559242867</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21857,15 +23731,11 @@
         <v>-2784395.779242867</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21898,11 +23768,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21935,11 +23801,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21968,15 +23830,11 @@
         <v>-2859346.071142867</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22005,15 +23863,11 @@
         <v>-3661323.006615594</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22046,11 +23900,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22083,11 +23933,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22120,11 +23966,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22153,15 +23995,11 @@
         <v>-2564770.817515594</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22190,15 +24028,11 @@
         <v>-2355978.147764002</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22227,15 +24061,11 @@
         <v>-1957963.117664002</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22264,15 +24094,11 @@
         <v>-3127599.698664002</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22301,15 +24127,11 @@
         <v>-3127599.698664002</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22338,15 +24160,11 @@
         <v>-3127599.698664002</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22375,15 +24193,11 @@
         <v>-3665448.899864002</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22412,15 +24226,11 @@
         <v>-3665448.899864002</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22449,15 +24259,11 @@
         <v>-3665448.899864002</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22486,15 +24292,11 @@
         <v>-3220802.860364002</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22523,15 +24325,11 @@
         <v>-3220802.860364002</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22560,15 +24358,11 @@
         <v>-3220802.860364002</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22597,15 +24391,11 @@
         <v>-3220802.860364002</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22634,15 +24424,11 @@
         <v>-4210010.512964002</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22671,15 +24457,11 @@
         <v>-4149935.468764002</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22712,11 +24494,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22749,11 +24527,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22786,11 +24560,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22823,11 +24593,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22860,11 +24626,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22897,11 +24659,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22934,11 +24692,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22971,11 +24725,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23008,11 +24758,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23045,11 +24791,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23082,11 +24824,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23119,11 +24857,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23156,11 +24890,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23193,11 +24923,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23230,11 +24956,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23267,11 +24989,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23304,11 +25022,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23341,11 +25055,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23378,11 +25088,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23415,11 +25121,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23452,11 +25154,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23489,11 +25187,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23526,11 +25220,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23563,11 +25253,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23600,11 +25286,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23637,11 +25319,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23674,11 +25352,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23711,11 +25385,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23748,11 +25418,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23785,11 +25451,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23822,11 +25484,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23859,11 +25517,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23896,11 +25550,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23933,11 +25583,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23970,11 +25616,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24007,11 +25649,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24044,11 +25682,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24081,11 +25715,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24118,11 +25748,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24155,11 +25781,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24192,11 +25814,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24229,11 +25847,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24266,11 +25880,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24303,11 +25913,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24340,11 +25946,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24377,11 +25979,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24414,11 +26012,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
